--- a/posts/2023-06-30-leaflet2/Tombstone Data_LES_problems.xlsx
+++ b/posts/2023-06-30-leaflet2/Tombstone Data_LES_problems.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drsin\OneDrive\Documents\R Projects\lsinks.github.io\posts\2023-06-30-leaflet2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be47a866d6192863/Documents/R Projects/lsinks.github.io/posts/2023-06-30-leaflet2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C11C3C83-EFD7-4B5A-A7EC-2D3CF4F787D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{C11C3C83-EFD7-4B5A-A7EC-2D3CF4F787D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67A9A427-71D4-4818-867A-75DA8447DFD2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6093,6 +6093,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -6226,7 +6229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6285,8 +6288,30 @@
     <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6307,6 +6332,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6608,10 +6637,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
       <pane xSplit="17280" topLeftCell="IV1"/>
-      <selection activeCell="A50" activeCellId="1" sqref="A47:XFD47 A50:XFD50"/>
-      <selection pane="topRight" activeCell="IW29" sqref="IW29"/>
+      <selection activeCell="H82" sqref="H82"/>
+      <selection pane="topRight" activeCell="IV13" sqref="IV13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6620,9 +6649,10 @@
     <col min="2" max="3" width="8.6640625" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.6640625" customWidth="1"/>
-    <col min="8" max="9" width="12.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="4" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" style="4" customWidth="1"/>
     <col min="11" max="11" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
@@ -6654,7 +6684,7 @@
       <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="65" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="8" t="s">
@@ -6669,7 +6699,7 @@
     </row>
     <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="I2" s="64"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -6690,10 +6720,10 @@
       <c r="G3" s="2" t="s">
         <v>1494</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="48" t="s">
         <v>1495</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="48" t="s">
         <v>1496</v>
       </c>
       <c r="J3" s="10"/>
@@ -6720,10 +6750,10 @@
       <c r="G4" s="2" t="s">
         <v>1494</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="48" t="s">
         <v>1499</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="48" t="s">
         <v>1500</v>
       </c>
       <c r="J4" s="10"/>
@@ -6735,29 +6765,29 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
@@ -6781,10 +6811,10 @@
       <c r="G9" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="47" t="s">
         <v>441</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="47" t="s">
         <v>442</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -6816,10 +6846,10 @@
       <c r="G10" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="47" t="s">
         <v>670</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="47" t="s">
         <v>672</v>
       </c>
       <c r="K10" s="4" t="s">
@@ -6848,10 +6878,10 @@
       <c r="G11" t="s">
         <v>133</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="47" t="s">
         <v>673</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="47" t="s">
         <v>674</v>
       </c>
       <c r="K11" s="4" t="s">
@@ -6883,7 +6913,8 @@
       <c r="G12" t="s">
         <v>133</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="H12" s="47"/>
+      <c r="I12" s="47" t="s">
         <v>678</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -6918,10 +6949,10 @@
       <c r="G13" t="s">
         <v>133</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="47" t="s">
         <v>679</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="47" t="s">
         <v>680</v>
       </c>
       <c r="J13" s="4" t="s">
@@ -6956,10 +6987,10 @@
       <c r="G14" t="s">
         <v>133</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="47" t="s">
         <v>662</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="47" t="s">
         <v>663</v>
       </c>
       <c r="K14" s="4" t="s">
@@ -6988,10 +7019,10 @@
       <c r="G15" t="s">
         <v>133</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="47" t="s">
         <v>664</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="47" t="s">
         <v>665</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -7017,10 +7048,10 @@
       <c r="G16" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="47" t="s">
         <v>1227</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="47" t="s">
         <v>1228</v>
       </c>
       <c r="K16" s="4" t="s">
@@ -7047,9 +7078,10 @@
       <c r="G17" t="s">
         <v>270</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="47" t="s">
         <v>1286</v>
       </c>
+      <c r="I17" s="47"/>
       <c r="J17" s="4" t="s">
         <v>1287</v>
       </c>
@@ -7060,6 +7092,10 @@
         <v>1285</v>
       </c>
       <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -7077,6 +7113,8 @@
       <c r="G19" t="s">
         <v>270</v>
       </c>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
       <c r="K19" s="4" t="s">
         <v>1295</v>
       </c>
@@ -7104,10 +7142,10 @@
       <c r="G20" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="47" t="s">
         <v>1219</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="47" t="s">
         <v>1220</v>
       </c>
       <c r="K20" s="4" t="s">
@@ -7137,9 +7175,10 @@
       <c r="G21" t="s">
         <v>86</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="47" t="s">
         <v>920</v>
       </c>
+      <c r="I21" s="47"/>
       <c r="K21" s="10" t="s">
         <v>1699</v>
       </c>
@@ -7172,10 +7211,10 @@
       <c r="G22" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="48" t="s">
         <v>1701</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="48" t="s">
         <v>921</v>
       </c>
       <c r="K22" s="4" t="s">
@@ -7210,7 +7249,8 @@
       <c r="G23" t="s">
         <v>86</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="H23" s="47"/>
+      <c r="I23" s="47" t="s">
         <v>921</v>
       </c>
       <c r="K23" s="4" t="s">
@@ -7240,10 +7280,10 @@
       <c r="G24" t="s">
         <v>86</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="47" t="s">
         <v>1017</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="47" t="s">
         <v>819</v>
       </c>
       <c r="K24" s="4" t="s">
@@ -7275,10 +7315,10 @@
       <c r="G25" t="s">
         <v>86</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="47" t="s">
         <v>1018</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="47" t="s">
         <v>1019</v>
       </c>
       <c r="K25" s="4" t="s">
@@ -7307,7 +7347,8 @@
       <c r="G26" t="s">
         <v>86</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="H26" s="47"/>
+      <c r="I26" s="47" t="s">
         <v>1478</v>
       </c>
       <c r="J26" s="4" t="s">
@@ -7337,7 +7378,8 @@
       <c r="G27" t="s">
         <v>86</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="H27" s="47"/>
+      <c r="I27" s="47" t="s">
         <v>1483</v>
       </c>
       <c r="J27" s="4" t="s">
@@ -7367,10 +7409,10 @@
       <c r="G28" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="47" t="s">
         <v>1356</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="47" t="s">
         <v>1357</v>
       </c>
       <c r="K28" s="10" t="s">
@@ -7396,9 +7438,10 @@
       <c r="G29" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="47" t="s">
         <v>1358</v>
       </c>
+      <c r="I29" s="47"/>
       <c r="K29" s="10" t="s">
         <v>1360</v>
       </c>
@@ -7425,10 +7468,10 @@
       <c r="G30" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="49" t="s">
         <v>1753</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="49" t="s">
         <v>755</v>
       </c>
       <c r="J30" s="19"/>
@@ -7455,6 +7498,8 @@
       <c r="G31" t="s">
         <v>133</v>
       </c>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
       <c r="K31" s="10" t="s">
         <v>1720</v>
       </c>
@@ -7481,6 +7526,8 @@
       <c r="G32" t="s">
         <v>133</v>
       </c>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
       <c r="K32" s="10" t="s">
         <v>1720</v>
       </c>
@@ -7507,6 +7554,8 @@
       <c r="G33" t="s">
         <v>133</v>
       </c>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
       <c r="K33" s="10" t="s">
         <v>1720</v>
       </c>
@@ -7530,6 +7579,8 @@
       <c r="G34" t="s">
         <v>133</v>
       </c>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
       <c r="K34" s="10" t="s">
         <v>1725</v>
       </c>
@@ -7553,10 +7604,10 @@
       <c r="G35" t="s">
         <v>133</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="47" t="s">
         <v>1359</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="47" t="s">
         <v>629</v>
       </c>
       <c r="J35" s="4" t="s">
@@ -7588,10 +7639,10 @@
       <c r="G36" t="s">
         <v>133</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="47" t="s">
         <v>634</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="47" t="s">
         <v>635</v>
       </c>
       <c r="K36" s="4" t="s">
@@ -7620,10 +7671,10 @@
       <c r="G37" t="s">
         <v>133</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="47" t="s">
         <v>636</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="47" t="s">
         <v>637</v>
       </c>
       <c r="K37" s="4" t="s">
@@ -7655,10 +7706,10 @@
       <c r="G38" t="s">
         <v>133</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="47" t="s">
         <v>641</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="47" t="s">
         <v>642</v>
       </c>
       <c r="K38" s="4" t="s">
@@ -7693,10 +7744,10 @@
       <c r="G39" t="s">
         <v>133</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="47" t="s">
         <v>1124</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="47" t="s">
         <v>1125</v>
       </c>
       <c r="K39" s="4" t="s">
@@ -7725,10 +7776,10 @@
       <c r="G40" t="s">
         <v>133</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="47" t="s">
         <v>799</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="47" t="s">
         <v>1123</v>
       </c>
       <c r="K40" s="4" t="s">
@@ -7740,6 +7791,10 @@
       <c r="M40" t="s">
         <v>365</v>
       </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -7760,10 +7815,10 @@
       <c r="G42" t="s">
         <v>133</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="47" t="s">
         <v>959</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="47" t="s">
         <v>960</v>
       </c>
       <c r="K42" s="4" t="s">
@@ -7798,10 +7853,10 @@
       <c r="G43" t="s">
         <v>133</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="47" t="s">
         <v>961</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="47" t="s">
         <v>963</v>
       </c>
       <c r="K43" s="4" t="s">
@@ -7836,7 +7891,8 @@
       <c r="G44" t="s">
         <v>133</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="H44" s="47"/>
+      <c r="I44" s="47" t="s">
         <v>852</v>
       </c>
       <c r="J44" s="4" t="s">
@@ -7877,7 +7933,8 @@
       <c r="G45" t="s">
         <v>133</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="H45" s="47"/>
+      <c r="I45" s="47" t="s">
         <v>851</v>
       </c>
       <c r="J45" s="4" t="s">
@@ -7895,6 +7952,10 @@
       <c r="N45" t="s">
         <v>365</v>
       </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -7912,6 +7973,8 @@
       <c r="G47" t="s">
         <v>133</v>
       </c>
+      <c r="H47" s="47"/>
+      <c r="I47" s="47"/>
       <c r="K47" s="4" t="s">
         <v>1214</v>
       </c>
@@ -7935,8 +7998,8 @@
       <c r="G48" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
       <c r="J48" s="26"/>
       <c r="K48" s="26" t="s">
         <v>1214</v>
@@ -7964,7 +8027,8 @@
       <c r="G49" t="s">
         <v>133</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="H49" s="47"/>
+      <c r="I49" s="47" t="s">
         <v>1130</v>
       </c>
       <c r="J49" s="4" t="s">
@@ -7993,10 +8057,10 @@
       <c r="G50" t="s">
         <v>133</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="47" t="s">
         <v>1133</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="47" t="s">
         <v>1134</v>
       </c>
       <c r="J50" s="4" t="s">
@@ -8028,10 +8092,10 @@
       <c r="G51" t="s">
         <v>133</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="47" t="s">
         <v>1135</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="47" t="s">
         <v>1136</v>
       </c>
       <c r="J51" s="4" t="s">
@@ -8063,10 +8127,10 @@
       <c r="G52" t="s">
         <v>133</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="47" t="s">
         <v>1141</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" s="47" t="s">
         <v>1142</v>
       </c>
       <c r="K52" s="4" t="s">
@@ -8095,10 +8159,10 @@
       <c r="G53" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H53" s="26" t="s">
+      <c r="H53" s="50" t="s">
         <v>1139</v>
       </c>
-      <c r="I53" s="26" t="s">
+      <c r="I53" s="50" t="s">
         <v>1140</v>
       </c>
       <c r="J53" s="26"/>
@@ -8134,7 +8198,8 @@
       <c r="G54" t="s">
         <v>133</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="H54" s="47"/>
+      <c r="I54" s="47" t="s">
         <v>1157</v>
       </c>
       <c r="J54" s="4" t="s">
@@ -8146,6 +8211,10 @@
       <c r="L54" s="4" t="s">
         <v>1129</v>
       </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -8163,12 +8232,18 @@
       <c r="G56" t="s">
         <v>270</v>
       </c>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
       <c r="K56" s="4" t="s">
         <v>1294</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>1288</v>
       </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
@@ -8190,10 +8265,10 @@
       <c r="G58" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H58" s="17" t="s">
+      <c r="H58" s="51" t="s">
         <v>1694</v>
       </c>
-      <c r="I58" s="17" t="s">
+      <c r="I58" s="51" t="s">
         <v>1695</v>
       </c>
       <c r="J58" s="17"/>
@@ -8222,10 +8297,10 @@
       <c r="G59" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H59" s="17" t="s">
+      <c r="H59" s="51" t="s">
         <v>1697</v>
       </c>
-      <c r="I59" s="17" t="s">
+      <c r="I59" s="51" t="s">
         <v>1698</v>
       </c>
       <c r="J59" s="17"/>
@@ -8238,6 +8313,8 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -8252,10 +8329,10 @@
       <c r="G61" t="s">
         <v>133</v>
       </c>
-      <c r="H61" s="4" t="s">
+      <c r="H61" s="47" t="s">
         <v>997</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="I61" s="47" t="s">
         <v>637</v>
       </c>
       <c r="K61" s="4" t="s">
@@ -8278,10 +8355,10 @@
       <c r="G62" t="s">
         <v>133</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="47" t="s">
         <v>998</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I62" s="47" t="s">
         <v>967</v>
       </c>
       <c r="K62" s="4" t="s">
@@ -8307,12 +8384,18 @@
       <c r="G63" t="s">
         <v>86</v>
       </c>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
       <c r="K63" s="4" t="s">
         <v>1252</v>
       </c>
       <c r="L63" s="4" t="s">
         <v>1253</v>
       </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -8333,10 +8416,10 @@
       <c r="G65" t="s">
         <v>190</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H65" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="I65" s="47" t="s">
         <v>192</v>
       </c>
       <c r="K65" s="4" t="s">
@@ -8362,10 +8445,10 @@
       <c r="G66" t="s">
         <v>190</v>
       </c>
-      <c r="H66" s="4" t="s">
+      <c r="H66" s="47" t="s">
         <v>193</v>
       </c>
-      <c r="I66" s="4" t="s">
+      <c r="I66" s="47" t="s">
         <v>194</v>
       </c>
       <c r="K66" s="4" t="s">
@@ -8391,7 +8474,8 @@
       <c r="G67" t="s">
         <v>190</v>
       </c>
-      <c r="I67" s="4" t="s">
+      <c r="H67" s="47"/>
+      <c r="I67" s="47" t="s">
         <v>195</v>
       </c>
       <c r="J67" s="4" t="s">
@@ -8403,6 +8487,10 @@
       <c r="L67" s="4" t="s">
         <v>227</v>
       </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
     </row>
     <row r="69" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="29" t="s">
@@ -8420,10 +8508,10 @@
       <c r="G69" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="H69" s="30" t="s">
+      <c r="H69" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="I69" s="30" t="s">
+      <c r="I69" s="52" t="s">
         <v>211</v>
       </c>
       <c r="J69" s="30"/>
@@ -8453,10 +8541,10 @@
       <c r="G70" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="H70" s="30" t="s">
+      <c r="H70" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="I70" s="30" t="s">
+      <c r="I70" s="52" t="s">
         <v>214</v>
       </c>
       <c r="J70" s="30" t="s">
@@ -8488,10 +8576,10 @@
       <c r="G71" t="s">
         <v>190</v>
       </c>
-      <c r="H71" s="4" t="s">
+      <c r="H71" s="47" t="s">
         <v>216</v>
       </c>
-      <c r="I71" s="4" t="s">
+      <c r="I71" s="47" t="s">
         <v>217</v>
       </c>
       <c r="K71" s="4" t="s">
@@ -8520,10 +8608,10 @@
       <c r="G72" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="H72" s="21" t="s">
+      <c r="H72" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="I72" s="21" t="s">
+      <c r="I72" s="53" t="s">
         <v>220</v>
       </c>
       <c r="J72" s="21"/>
@@ -8553,8 +8641,8 @@
       <c r="G73" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
+      <c r="H73" s="53"/>
+      <c r="I73" s="53"/>
       <c r="J73" s="21"/>
       <c r="K73" s="21" t="s">
         <v>1336</v>
@@ -8579,8 +8667,8 @@
       <c r="G74" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
       <c r="J74" s="21"/>
       <c r="K74" s="21" t="s">
         <v>1336</v>
@@ -8605,8 +8693,8 @@
       <c r="G75" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
+      <c r="H75" s="53"/>
+      <c r="I75" s="53"/>
       <c r="J75" s="21"/>
       <c r="K75" s="21" t="s">
         <v>1336</v>
@@ -8631,8 +8719,8 @@
       <c r="G76" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
+      <c r="H76" s="53"/>
+      <c r="I76" s="53"/>
       <c r="J76" s="21"/>
       <c r="K76" s="21" t="s">
         <v>1336</v>
@@ -8657,8 +8745,8 @@
       <c r="G77" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
+      <c r="H77" s="53"/>
+      <c r="I77" s="53"/>
       <c r="J77" s="21"/>
       <c r="K77" s="21" t="s">
         <v>1336</v>
@@ -8683,10 +8771,10 @@
       <c r="G78" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="H78" s="30" t="s">
+      <c r="H78" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="I78" s="30" t="s">
+      <c r="I78" s="52" t="s">
         <v>222</v>
       </c>
       <c r="J78" s="30"/>
@@ -8719,10 +8807,10 @@
       <c r="G79" t="s">
         <v>190</v>
       </c>
-      <c r="H79" s="4" t="s">
+      <c r="H79" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="I79" s="4" t="s">
+      <c r="I79" s="47" t="s">
         <v>258</v>
       </c>
       <c r="K79" s="4" t="s">
@@ -8751,10 +8839,10 @@
       <c r="G80" t="s">
         <v>190</v>
       </c>
-      <c r="H80" s="4">
+      <c r="H80" s="47">
         <v>1869</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="I80" s="47" t="s">
         <v>256</v>
       </c>
       <c r="K80" s="4" t="s">
@@ -8783,10 +8871,10 @@
       <c r="G81" t="s">
         <v>190</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="47">
         <v>1864</v>
       </c>
-      <c r="I81" s="4" t="s">
+      <c r="I81" s="47" t="s">
         <v>477</v>
       </c>
       <c r="K81" s="4" t="s">
@@ -8815,10 +8903,10 @@
       <c r="G82" t="s">
         <v>190</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H82" s="47">
         <v>1868</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="I82" s="47" t="s">
         <v>264</v>
       </c>
       <c r="K82" s="4" t="s">
@@ -8847,10 +8935,10 @@
       <c r="G83" t="s">
         <v>133</v>
       </c>
-      <c r="H83" s="4" t="s">
+      <c r="H83" s="47" t="s">
         <v>445</v>
       </c>
-      <c r="I83" s="4" t="s">
+      <c r="I83" s="47" t="s">
         <v>446</v>
       </c>
       <c r="K83" s="4" t="s">
@@ -8885,10 +8973,10 @@
       <c r="G84" t="s">
         <v>133</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H84" s="47" t="s">
         <v>447</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="I84" s="47" t="s">
         <v>448</v>
       </c>
       <c r="K84" s="4" t="s">
@@ -8920,10 +9008,10 @@
       <c r="G85" t="s">
         <v>133</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="H85" s="47" t="s">
         <v>457</v>
       </c>
-      <c r="I85" s="4" t="s">
+      <c r="I85" s="47" t="s">
         <v>458</v>
       </c>
       <c r="K85" s="4" t="s">
@@ -8955,10 +9043,10 @@
       <c r="G86" t="s">
         <v>133</v>
       </c>
-      <c r="H86" s="4" t="s">
+      <c r="H86" s="47" t="s">
         <v>399</v>
       </c>
-      <c r="I86" s="4" t="s">
+      <c r="I86" s="47" t="s">
         <v>400</v>
       </c>
       <c r="K86" s="4" t="s">
@@ -8993,10 +9081,10 @@
       <c r="G87" t="s">
         <v>133</v>
       </c>
-      <c r="H87" s="4" t="s">
+      <c r="H87" s="47" t="s">
         <v>397</v>
       </c>
-      <c r="I87" s="4" t="s">
+      <c r="I87" s="47" t="s">
         <v>398</v>
       </c>
       <c r="K87" s="4" t="s">
@@ -9028,10 +9116,10 @@
       <c r="G88" t="s">
         <v>133</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="H88" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="I88" s="4" t="s">
+      <c r="I88" s="47" t="s">
         <v>360</v>
       </c>
       <c r="K88" s="4" t="s">
@@ -9063,10 +9151,10 @@
       <c r="G89" t="s">
         <v>133</v>
       </c>
-      <c r="H89" s="4" t="s">
+      <c r="H89" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="I89" s="47" t="s">
         <v>362</v>
       </c>
       <c r="K89" s="4" t="s">
@@ -9078,6 +9166,10 @@
       <c r="M89" t="s">
         <v>365</v>
       </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H90" s="47"/>
+      <c r="I90" s="47"/>
     </row>
     <row r="91" spans="1:13" s="40" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A91" s="40" t="s">
@@ -9098,17 +9190,17 @@
       <c r="G91" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="H91" s="46" t="s">
+      <c r="H91" s="54" t="s">
         <v>1118</v>
       </c>
-      <c r="I91" s="46" t="s">
+      <c r="I91" s="54" t="s">
         <v>1119</v>
       </c>
       <c r="J91" s="41"/>
-      <c r="K91" s="47" t="s">
+      <c r="K91" s="46" t="s">
         <v>1120</v>
       </c>
-      <c r="L91" s="47" t="s">
+      <c r="L91" s="46" t="s">
         <v>1121</v>
       </c>
     </row>
@@ -9131,10 +9223,10 @@
       <c r="G92" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="H92" s="41" t="s">
+      <c r="H92" s="55" t="s">
         <v>1028</v>
       </c>
-      <c r="I92" s="41" t="s">
+      <c r="I92" s="55" t="s">
         <v>1029</v>
       </c>
       <c r="J92" s="41" t="s">
@@ -9166,10 +9258,10 @@
       <c r="G93" t="s">
         <v>86</v>
       </c>
-      <c r="H93" s="4" t="s">
+      <c r="H93" s="47" t="s">
         <v>1031</v>
       </c>
-      <c r="I93" s="4" t="s">
+      <c r="I93" s="47" t="s">
         <v>1032</v>
       </c>
       <c r="J93" s="4" t="s">
@@ -9201,10 +9293,10 @@
       <c r="G94" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="H94" s="26" t="s">
+      <c r="H94" s="50" t="s">
         <v>1031</v>
       </c>
-      <c r="I94" s="26" t="s">
+      <c r="I94" s="50" t="s">
         <v>1034</v>
       </c>
       <c r="J94" s="26" t="s">
@@ -9239,7 +9331,8 @@
       <c r="G95" t="s">
         <v>86</v>
       </c>
-      <c r="I95" s="4" t="s">
+      <c r="H95" s="47"/>
+      <c r="I95" s="47" t="s">
         <v>1024</v>
       </c>
       <c r="J95" s="4" t="s">
@@ -9274,10 +9367,10 @@
       <c r="G96" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="H96" s="24" t="s">
+      <c r="H96" s="56" t="s">
         <v>1683</v>
       </c>
-      <c r="I96" s="24" t="s">
+      <c r="I96" s="56" t="s">
         <v>1684</v>
       </c>
       <c r="J96" s="24"/>
@@ -9306,10 +9399,10 @@
       <c r="G97" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="H97" s="23" t="s">
+      <c r="H97" s="56" t="s">
         <v>1681</v>
       </c>
-      <c r="I97" s="24" t="s">
+      <c r="I97" s="56" t="s">
         <v>1682</v>
       </c>
       <c r="J97" s="24"/>
@@ -9335,10 +9428,10 @@
       <c r="G98" t="s">
         <v>86</v>
       </c>
-      <c r="H98" s="4" t="s">
+      <c r="H98" s="47" t="s">
         <v>898</v>
       </c>
-      <c r="I98" s="4" t="s">
+      <c r="I98" s="47" t="s">
         <v>899</v>
       </c>
       <c r="K98" s="4" t="s">
@@ -9367,10 +9460,10 @@
       <c r="G99" t="s">
         <v>86</v>
       </c>
-      <c r="H99" s="4" t="s">
+      <c r="H99" s="47" t="s">
         <v>901</v>
       </c>
-      <c r="I99" s="4" t="s">
+      <c r="I99" s="47" t="s">
         <v>902</v>
       </c>
       <c r="K99" s="4" t="s">
@@ -9402,10 +9495,10 @@
       <c r="G100" t="s">
         <v>133</v>
       </c>
-      <c r="H100" s="4" t="s">
+      <c r="H100" s="47" t="s">
         <v>946</v>
       </c>
-      <c r="I100" s="4" t="s">
+      <c r="I100" s="47" t="s">
         <v>947</v>
       </c>
       <c r="K100" s="4" t="s">
@@ -9437,10 +9530,10 @@
       <c r="G101" t="s">
         <v>133</v>
       </c>
-      <c r="H101" s="4" t="s">
+      <c r="H101" s="47" t="s">
         <v>944</v>
       </c>
-      <c r="I101" s="4" t="s">
+      <c r="I101" s="47" t="s">
         <v>945</v>
       </c>
       <c r="K101" s="4" t="s">
@@ -9469,10 +9562,10 @@
       <c r="G102" t="s">
         <v>133</v>
       </c>
-      <c r="H102" s="4" t="s">
+      <c r="H102" s="47" t="s">
         <v>948</v>
       </c>
-      <c r="I102" s="4" t="s">
+      <c r="I102" s="47" t="s">
         <v>949</v>
       </c>
       <c r="K102" s="4" t="s">
@@ -9504,10 +9597,10 @@
       <c r="G103" t="s">
         <v>133</v>
       </c>
-      <c r="H103" s="4" t="s">
+      <c r="H103" s="47" t="s">
         <v>940</v>
       </c>
-      <c r="I103" s="4" t="s">
+      <c r="I103" s="47" t="s">
         <v>941</v>
       </c>
       <c r="K103" s="4" t="s">
@@ -9539,10 +9632,10 @@
       <c r="G104" t="s">
         <v>133</v>
       </c>
-      <c r="H104" s="4" t="s">
+      <c r="H104" s="47" t="s">
         <v>942</v>
       </c>
-      <c r="I104" s="4" t="s">
+      <c r="I104" s="47" t="s">
         <v>943</v>
       </c>
       <c r="K104" s="4" t="s">
@@ -9574,6 +9667,8 @@
       <c r="G105" t="s">
         <v>133</v>
       </c>
+      <c r="H105" s="47"/>
+      <c r="I105" s="47"/>
       <c r="K105" s="4" t="s">
         <v>1580</v>
       </c>
@@ -9600,6 +9695,8 @@
       <c r="G106" t="s">
         <v>133</v>
       </c>
+      <c r="H106" s="47"/>
+      <c r="I106" s="47"/>
       <c r="K106" s="4" t="s">
         <v>1584</v>
       </c>
@@ -9626,8 +9723,8 @@
       <c r="G107" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H107" s="26"/>
-      <c r="I107" s="26"/>
+      <c r="H107" s="50"/>
+      <c r="I107" s="50"/>
       <c r="J107" s="26"/>
       <c r="K107" s="26" t="s">
         <v>1584</v>
@@ -9655,6 +9752,8 @@
       <c r="G108" t="s">
         <v>133</v>
       </c>
+      <c r="H108" s="47"/>
+      <c r="I108" s="47"/>
       <c r="K108" s="4" t="s">
         <v>1580</v>
       </c>
@@ -9678,6 +9777,8 @@
       <c r="G109" t="s">
         <v>133</v>
       </c>
+      <c r="H109" s="47"/>
+      <c r="I109" s="47"/>
       <c r="K109" s="4" t="s">
         <v>1580</v>
       </c>
@@ -9704,6 +9805,8 @@
       <c r="G110" t="s">
         <v>133</v>
       </c>
+      <c r="H110" s="47"/>
+      <c r="I110" s="47"/>
       <c r="K110" s="4" t="s">
         <v>595</v>
       </c>
@@ -9733,10 +9836,10 @@
       <c r="G111" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H111" s="26" t="s">
+      <c r="H111" s="50" t="s">
         <v>592</v>
       </c>
-      <c r="I111" s="26" t="s">
+      <c r="I111" s="50" t="s">
         <v>593</v>
       </c>
       <c r="J111" s="26"/>
@@ -9766,10 +9869,10 @@
       <c r="G112" t="s">
         <v>133</v>
       </c>
-      <c r="H112" s="4" t="s">
+      <c r="H112" s="47" t="s">
         <v>703</v>
       </c>
-      <c r="I112" s="4" t="s">
+      <c r="I112" s="47" t="s">
         <v>704</v>
       </c>
       <c r="K112" s="4" t="s">
@@ -9801,8 +9904,8 @@
       <c r="G113" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="H113" s="32"/>
-      <c r="I113" s="32" t="s">
+      <c r="H113" s="57"/>
+      <c r="I113" s="57" t="s">
         <v>705</v>
       </c>
       <c r="J113" s="32" t="s">
@@ -9831,8 +9934,8 @@
       <c r="F114" s="40" t="s">
         <v>690</v>
       </c>
-      <c r="H114" s="41"/>
-      <c r="I114" s="41"/>
+      <c r="H114" s="55"/>
+      <c r="I114" s="55"/>
       <c r="J114" s="41"/>
       <c r="K114" s="41" t="s">
         <v>1590</v>
@@ -9858,6 +9961,8 @@
       <c r="F115" t="s">
         <v>690</v>
       </c>
+      <c r="H115" s="47"/>
+      <c r="I115" s="47"/>
       <c r="K115" s="4" t="s">
         <v>1590</v>
       </c>
@@ -9882,10 +9987,10 @@
       <c r="G116" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H116" s="26" t="s">
+      <c r="H116" s="50" t="s">
         <v>951</v>
       </c>
-      <c r="I116" s="26" t="s">
+      <c r="I116" s="50" t="s">
         <v>952</v>
       </c>
       <c r="J116" s="26"/>
@@ -9915,10 +10020,10 @@
       <c r="G117" t="s">
         <v>133</v>
       </c>
-      <c r="H117" s="4" t="s">
+      <c r="H117" s="47" t="s">
         <v>951</v>
       </c>
-      <c r="I117" s="4" t="s">
+      <c r="I117" s="47" t="s">
         <v>952</v>
       </c>
       <c r="K117" s="4" t="s">
@@ -9947,10 +10052,10 @@
       <c r="G118" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H118" s="26" t="s">
+      <c r="H118" s="50" t="s">
         <v>812</v>
       </c>
-      <c r="I118" s="26" t="s">
+      <c r="I118" s="50" t="s">
         <v>818</v>
       </c>
       <c r="J118" s="26"/>
@@ -9983,10 +10088,10 @@
       <c r="G119" t="s">
         <v>133</v>
       </c>
-      <c r="H119" s="4" t="s">
+      <c r="H119" s="47" t="s">
         <v>819</v>
       </c>
-      <c r="I119" s="4" t="s">
+      <c r="I119" s="47" t="s">
         <v>820</v>
       </c>
       <c r="K119" s="4" t="s">
@@ -10018,7 +10123,8 @@
       <c r="G120" t="s">
         <v>133</v>
       </c>
-      <c r="I120" s="4" t="s">
+      <c r="H120" s="47"/>
+      <c r="I120" s="47" t="s">
         <v>822</v>
       </c>
       <c r="J120" s="4" t="s">
@@ -10054,10 +10160,10 @@
       <c r="G121" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="H121" s="32" t="s">
+      <c r="H121" s="57" t="s">
         <v>825</v>
       </c>
-      <c r="I121" s="32" t="s">
+      <c r="I121" s="57" t="s">
         <v>826</v>
       </c>
       <c r="J121" s="32"/>
@@ -10088,10 +10194,10 @@
       <c r="G122" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H122" s="26" t="s">
+      <c r="H122" s="50" t="s">
         <v>836</v>
       </c>
-      <c r="I122" s="26" t="s">
+      <c r="I122" s="50" t="s">
         <v>837</v>
       </c>
       <c r="J122" s="26"/>
@@ -10124,10 +10230,10 @@
       <c r="G123" t="s">
         <v>133</v>
       </c>
-      <c r="H123" s="4" t="s">
+      <c r="H123" s="47" t="s">
         <v>843</v>
       </c>
-      <c r="I123" s="4" t="s">
+      <c r="I123" s="47" t="s">
         <v>844</v>
       </c>
       <c r="K123" s="4" t="s">
@@ -10157,10 +10263,10 @@
       <c r="G124" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="H124" s="32" t="s">
+      <c r="H124" s="57" t="s">
         <v>964</v>
       </c>
-      <c r="I124" s="32" t="s">
+      <c r="I124" s="57" t="s">
         <v>965</v>
       </c>
       <c r="J124" s="32"/>
@@ -10191,10 +10297,10 @@
       <c r="G125" t="s">
         <v>133</v>
       </c>
-      <c r="H125" s="4" t="s">
+      <c r="H125" s="47" t="s">
         <v>848</v>
       </c>
-      <c r="I125" s="4" t="s">
+      <c r="I125" s="47" t="s">
         <v>235</v>
       </c>
       <c r="K125" s="4" t="s">
@@ -10229,10 +10335,10 @@
       <c r="G126" t="s">
         <v>133</v>
       </c>
-      <c r="H126" s="4" t="s">
+      <c r="H126" s="47" t="s">
         <v>847</v>
       </c>
-      <c r="I126" s="4" t="s">
+      <c r="I126" s="47" t="s">
         <v>602</v>
       </c>
       <c r="K126" s="4" t="s">
@@ -10267,8 +10373,8 @@
       <c r="G127" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19" t="s">
+      <c r="H127" s="49"/>
+      <c r="I127" s="49" t="s">
         <v>1636</v>
       </c>
       <c r="J127" s="19" t="s">
@@ -10300,8 +10406,8 @@
       <c r="G128" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19" t="s">
+      <c r="H128" s="49"/>
+      <c r="I128" s="49" t="s">
         <v>1643</v>
       </c>
       <c r="J128" s="19" t="s">
@@ -10313,6 +10419,10 @@
       <c r="L128" s="19" t="s">
         <v>1638</v>
       </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H129" s="47"/>
+      <c r="I129" s="47"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
@@ -10334,10 +10444,10 @@
       <c r="G130" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H130" s="17" t="s">
+      <c r="H130" s="51" t="s">
         <v>1210</v>
       </c>
-      <c r="I130" s="17" t="s">
+      <c r="I130" s="51" t="s">
         <v>1263</v>
       </c>
       <c r="J130" s="17"/>
@@ -10348,6 +10458,14 @@
         <v>1749</v>
       </c>
     </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H131" s="47"/>
+      <c r="I131" s="47"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H132" s="47"/>
+      <c r="I132" s="47"/>
+    </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>64</v>
@@ -10367,10 +10485,10 @@
       <c r="G133" t="s">
         <v>15</v>
       </c>
-      <c r="H133" s="4" t="s">
+      <c r="H133" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="I133" s="4" t="s">
+      <c r="I133" s="47" t="s">
         <v>70</v>
       </c>
       <c r="J133" s="4" t="s">
@@ -10399,10 +10517,10 @@
       <c r="G134" t="s">
         <v>15</v>
       </c>
-      <c r="H134" s="4" t="s">
+      <c r="H134" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="I134" s="4" t="s">
+      <c r="I134" s="47" t="s">
         <v>67</v>
       </c>
       <c r="J134" s="4" t="s">
@@ -10416,6 +10534,8 @@
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H135" s="47"/>
+      <c r="I135" s="47"/>
       <c r="K135" s="11"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -10437,7 +10557,8 @@
       <c r="G136" t="s">
         <v>270</v>
       </c>
-      <c r="I136" s="4" t="s">
+      <c r="H136" s="47"/>
+      <c r="I136" s="47" t="s">
         <v>1293</v>
       </c>
       <c r="J136" s="4" t="s">
@@ -10451,6 +10572,8 @@
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H137" s="47"/>
+      <c r="I137" s="47"/>
       <c r="K137" s="11"/>
     </row>
     <row r="138" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -10469,8 +10592,8 @@
       <c r="G138" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="H138" s="32"/>
-      <c r="I138" s="32" t="s">
+      <c r="H138" s="57"/>
+      <c r="I138" s="57" t="s">
         <v>540</v>
       </c>
       <c r="J138" s="32" t="s">
@@ -10502,8 +10625,8 @@
       <c r="G139" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="H139" s="32"/>
-      <c r="I139" s="32" t="s">
+      <c r="H139" s="57"/>
+      <c r="I139" s="57" t="s">
         <v>878</v>
       </c>
       <c r="J139" s="32" t="s">
@@ -10520,6 +10643,8 @@
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H140" s="47"/>
+      <c r="I140" s="47"/>
       <c r="K140" s="11"/>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -10538,7 +10663,8 @@
       <c r="G141" t="s">
         <v>93</v>
       </c>
-      <c r="I141" s="4" t="s">
+      <c r="H141" s="47"/>
+      <c r="I141" s="47" t="s">
         <v>97</v>
       </c>
       <c r="J141" s="4" t="s">
@@ -10570,10 +10696,10 @@
       <c r="G142" t="s">
         <v>133</v>
       </c>
-      <c r="H142" s="4" t="s">
+      <c r="H142" s="47" t="s">
         <v>1422</v>
       </c>
-      <c r="I142" s="4" t="s">
+      <c r="I142" s="47" t="s">
         <v>1423</v>
       </c>
       <c r="K142" s="4" t="s">
@@ -10602,10 +10728,10 @@
       <c r="G143" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H143" s="26" t="s">
+      <c r="H143" s="50" t="s">
         <v>1427</v>
       </c>
-      <c r="I143" s="26" t="s">
+      <c r="I143" s="50" t="s">
         <v>1428</v>
       </c>
       <c r="J143" s="26"/>
@@ -10635,7 +10761,8 @@
       <c r="G144" t="s">
         <v>133</v>
       </c>
-      <c r="I144" s="4" t="s">
+      <c r="H144" s="47"/>
+      <c r="I144" s="47" t="s">
         <v>1430</v>
       </c>
       <c r="J144" s="4" t="s">
@@ -10670,7 +10797,8 @@
       <c r="G145" t="s">
         <v>133</v>
       </c>
-      <c r="I145" s="4" t="s">
+      <c r="H145" s="47"/>
+      <c r="I145" s="47" t="s">
         <v>1438</v>
       </c>
       <c r="J145" s="4" t="s">
@@ -10702,7 +10830,8 @@
       <c r="G146" t="s">
         <v>133</v>
       </c>
-      <c r="I146" s="4" t="s">
+      <c r="H146" s="47"/>
+      <c r="I146" s="47" t="s">
         <v>1442</v>
       </c>
       <c r="J146" s="4" t="s">
@@ -10731,10 +10860,10 @@
       <c r="G147" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="H147" s="19" t="s">
+      <c r="H147" s="49" t="s">
         <v>1443</v>
       </c>
-      <c r="I147" s="19" t="s">
+      <c r="I147" s="49" t="s">
         <v>1444</v>
       </c>
       <c r="J147" s="19"/>
@@ -10764,7 +10893,8 @@
       <c r="G148" t="s">
         <v>133</v>
       </c>
-      <c r="I148" s="4" t="s">
+      <c r="H148" s="47"/>
+      <c r="I148" s="47" t="s">
         <v>1449</v>
       </c>
       <c r="J148" s="4" t="s">
@@ -10799,10 +10929,10 @@
       <c r="G149" t="s">
         <v>133</v>
       </c>
-      <c r="H149" s="4" t="s">
+      <c r="H149" s="47" t="s">
         <v>1452</v>
       </c>
-      <c r="I149" s="4" t="s">
+      <c r="I149" s="47" t="s">
         <v>1455</v>
       </c>
       <c r="K149" s="4" t="s">
@@ -10834,10 +10964,10 @@
       <c r="G150" t="s">
         <v>133</v>
       </c>
-      <c r="H150" s="4" t="s">
+      <c r="H150" s="47" t="s">
         <v>1454</v>
       </c>
-      <c r="I150" s="4" t="s">
+      <c r="I150" s="47" t="s">
         <v>1456</v>
       </c>
       <c r="K150" s="4" t="s">
@@ -10869,10 +10999,10 @@
       <c r="G151" t="s">
         <v>133</v>
       </c>
-      <c r="H151" s="4" t="s">
+      <c r="H151" s="47" t="s">
         <v>1458</v>
       </c>
-      <c r="I151" s="4" t="s">
+      <c r="I151" s="47" t="s">
         <v>1459</v>
       </c>
       <c r="K151" s="4" t="s">
@@ -10881,6 +11011,10 @@
       <c r="L151" s="4" t="s">
         <v>1460</v>
       </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H152" s="47"/>
+      <c r="I152" s="47"/>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
@@ -10901,10 +11035,10 @@
       <c r="G153" t="s">
         <v>133</v>
       </c>
-      <c r="H153" s="4" t="s">
+      <c r="H153" s="47" t="s">
         <v>685</v>
       </c>
-      <c r="I153" s="4" t="s">
+      <c r="I153" s="47" t="s">
         <v>686</v>
       </c>
       <c r="K153" s="4" t="s">
@@ -10936,10 +11070,10 @@
       <c r="G154" t="s">
         <v>133</v>
       </c>
-      <c r="H154" s="4" t="s">
+      <c r="H154" s="47" t="s">
         <v>778</v>
       </c>
-      <c r="I154" s="4" t="s">
+      <c r="I154" s="47" t="s">
         <v>779</v>
       </c>
       <c r="K154" s="4" t="s">
@@ -10965,6 +11099,8 @@
       <c r="G155" t="s">
         <v>1344</v>
       </c>
+      <c r="H155" s="47"/>
+      <c r="I155" s="47"/>
       <c r="K155" s="4" t="s">
         <v>1348</v>
       </c>
@@ -10985,6 +11121,8 @@
       <c r="G156" t="s">
         <v>1344</v>
       </c>
+      <c r="H156" s="47"/>
+      <c r="I156" s="47"/>
       <c r="K156" s="4" t="s">
         <v>1349</v>
       </c>
@@ -11012,6 +11150,8 @@
       <c r="G157" t="s">
         <v>1344</v>
       </c>
+      <c r="H157" s="47"/>
+      <c r="I157" s="47"/>
       <c r="K157" s="4" t="s">
         <v>1348</v>
       </c>
@@ -11035,12 +11175,22 @@
       <c r="G158" t="s">
         <v>1745</v>
       </c>
+      <c r="H158" s="47"/>
+      <c r="I158" s="47"/>
       <c r="K158" s="4" t="s">
         <v>1746</v>
       </c>
       <c r="L158" s="4" t="s">
         <v>1747</v>
       </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H159" s="47"/>
+      <c r="I159" s="47"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H160" s="47"/>
+      <c r="I160" s="47"/>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
@@ -11061,10 +11211,10 @@
       <c r="G161" t="s">
         <v>190</v>
       </c>
-      <c r="H161" s="4" t="s">
+      <c r="H161" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="I161" s="4" t="s">
+      <c r="I161" s="47" t="s">
         <v>250</v>
       </c>
       <c r="K161" s="4" t="s">
@@ -11093,10 +11243,10 @@
       <c r="G162" t="s">
         <v>190</v>
       </c>
-      <c r="H162" s="4">
+      <c r="H162" s="47">
         <v>1899</v>
       </c>
-      <c r="I162" s="4" t="s">
+      <c r="I162" s="47" t="s">
         <v>251</v>
       </c>
       <c r="K162" s="4" t="s">
@@ -11105,6 +11255,10 @@
       <c r="L162" s="4" t="s">
         <v>275</v>
       </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H163" s="47"/>
+      <c r="I163" s="47"/>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
@@ -11125,10 +11279,10 @@
       <c r="G164" t="s">
         <v>133</v>
       </c>
-      <c r="H164" s="4" t="s">
+      <c r="H164" s="47" t="s">
         <v>1418</v>
       </c>
-      <c r="I164" s="4" t="s">
+      <c r="I164" s="47" t="s">
         <v>1419</v>
       </c>
       <c r="J164" s="4" t="s">
@@ -11160,7 +11314,8 @@
       <c r="G165" t="s">
         <v>133</v>
       </c>
-      <c r="I165" s="4" t="s">
+      <c r="H165" s="47"/>
+      <c r="I165" s="47" t="s">
         <v>1148</v>
       </c>
       <c r="J165" s="4" t="s">
@@ -11192,7 +11347,8 @@
       <c r="G166" t="s">
         <v>133</v>
       </c>
-      <c r="I166" s="4" t="s">
+      <c r="H166" s="47"/>
+      <c r="I166" s="47" t="s">
         <v>1150</v>
       </c>
       <c r="J166" s="4" t="s">
@@ -11224,10 +11380,10 @@
       <c r="G167" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H167" s="26" t="s">
+      <c r="H167" s="50" t="s">
         <v>1160</v>
       </c>
-      <c r="I167" s="26" t="s">
+      <c r="I167" s="50" t="s">
         <v>1161</v>
       </c>
       <c r="J167" s="26"/>
@@ -11260,9 +11416,10 @@
       <c r="G168" t="s">
         <v>133</v>
       </c>
-      <c r="H168" s="4" t="s">
+      <c r="H168" s="47" t="s">
         <v>1164</v>
       </c>
+      <c r="I168" s="47"/>
       <c r="K168" s="4" t="s">
         <v>1165</v>
       </c>
@@ -11292,10 +11449,10 @@
       <c r="G169" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="H169" s="30" t="s">
+      <c r="H169" s="52" t="s">
         <v>1171</v>
       </c>
-      <c r="I169" s="30" t="s">
+      <c r="I169" s="52" t="s">
         <v>1172</v>
       </c>
       <c r="J169" s="30"/>
@@ -11328,10 +11485,10 @@
       <c r="G170" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="H170" s="30" t="s">
+      <c r="H170" s="52" t="s">
         <v>1183</v>
       </c>
-      <c r="I170" s="30" t="s">
+      <c r="I170" s="52" t="s">
         <v>397</v>
       </c>
       <c r="J170" s="30"/>
@@ -11364,10 +11521,10 @@
       <c r="G171" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="H171" s="32" t="s">
+      <c r="H171" s="57" t="s">
         <v>1169</v>
       </c>
-      <c r="I171" s="32" t="s">
+      <c r="I171" s="57" t="s">
         <v>1170</v>
       </c>
       <c r="J171" s="32"/>
@@ -11400,10 +11557,10 @@
       <c r="G172" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="H172" s="32" t="s">
+      <c r="H172" s="57" t="s">
         <v>1185</v>
       </c>
-      <c r="I172" s="32" t="s">
+      <c r="I172" s="57" t="s">
         <v>1186</v>
       </c>
       <c r="J172" s="32"/>
@@ -11436,10 +11593,10 @@
       <c r="G173" t="s">
         <v>133</v>
       </c>
-      <c r="H173" s="4" t="s">
+      <c r="H173" s="47" t="s">
         <v>1175</v>
       </c>
-      <c r="I173" s="4" t="s">
+      <c r="I173" s="47" t="s">
         <v>1123</v>
       </c>
       <c r="K173" s="4" t="s">
@@ -11466,10 +11623,10 @@
       <c r="G174" t="s">
         <v>133</v>
       </c>
-      <c r="H174" s="4" t="s">
+      <c r="H174" s="47" t="s">
         <v>592</v>
       </c>
-      <c r="I174" s="4" t="s">
+      <c r="I174" s="47" t="s">
         <v>1083</v>
       </c>
       <c r="K174" s="4" t="s">
@@ -11499,10 +11656,10 @@
       <c r="G175" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H175" s="26" t="s">
+      <c r="H175" s="50" t="s">
         <v>799</v>
       </c>
-      <c r="I175" s="26" t="s">
+      <c r="I175" s="50" t="s">
         <v>637</v>
       </c>
       <c r="J175" s="26"/>
@@ -11533,10 +11690,10 @@
       <c r="G176" t="s">
         <v>133</v>
       </c>
-      <c r="H176" s="4" t="s">
+      <c r="H176" s="47" t="s">
         <v>1191</v>
       </c>
-      <c r="I176" s="4" t="s">
+      <c r="I176" s="47" t="s">
         <v>1192</v>
       </c>
       <c r="K176" s="4" t="s">
@@ -11566,10 +11723,10 @@
       <c r="G177" t="s">
         <v>133</v>
       </c>
-      <c r="H177" s="4" t="s">
+      <c r="H177" s="47" t="s">
         <v>603</v>
       </c>
-      <c r="I177" s="4" t="s">
+      <c r="I177" s="47" t="s">
         <v>1193</v>
       </c>
       <c r="K177" s="4" t="s">
@@ -11581,9 +11738,13 @@
       <c r="M177" s="4"/>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H178" s="47"/>
+      <c r="I178" s="47"/>
       <c r="M178" s="4"/>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H179" s="47"/>
+      <c r="I179" s="47"/>
       <c r="M179" s="4"/>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -11605,10 +11766,10 @@
       <c r="G180" t="s">
         <v>133</v>
       </c>
-      <c r="H180" s="4" t="s">
+      <c r="H180" s="47" t="s">
         <v>1178</v>
       </c>
-      <c r="I180" s="4" t="s">
+      <c r="I180" s="47" t="s">
         <v>463</v>
       </c>
       <c r="K180" s="4" t="s">
@@ -11620,6 +11781,8 @@
       <c r="M180" s="4"/>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H181" s="47"/>
+      <c r="I181" s="47"/>
       <c r="M181" s="4"/>
     </row>
     <row r="182" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -11638,10 +11801,10 @@
       <c r="G182" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="H182" s="19" t="s">
+      <c r="H182" s="49" t="s">
         <v>1630</v>
       </c>
-      <c r="I182" s="19" t="s">
+      <c r="I182" s="49" t="s">
         <v>1631</v>
       </c>
       <c r="J182" s="19"/>
@@ -11668,10 +11831,10 @@
       <c r="G183" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="H183" s="19" t="s">
+      <c r="H183" s="49" t="s">
         <v>1633</v>
       </c>
-      <c r="I183" s="19" t="s">
+      <c r="I183" s="49" t="s">
         <v>1634</v>
       </c>
       <c r="J183" s="19"/>
@@ -11679,6 +11842,10 @@
       <c r="L183" s="19"/>
       <c r="M183" s="19"/>
     </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H184" s="47"/>
+      <c r="I184" s="47"/>
+    </row>
     <row r="185" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>111</v>
@@ -11695,10 +11862,10 @@
       <c r="G185" t="s">
         <v>15</v>
       </c>
-      <c r="H185" s="4" t="s">
+      <c r="H185" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="I185" s="4" t="s">
+      <c r="I185" s="47" t="s">
         <v>150</v>
       </c>
       <c r="J185" s="4" t="s">
@@ -11727,10 +11894,10 @@
       <c r="G186" t="s">
         <v>15</v>
       </c>
-      <c r="H186" s="4" t="s">
+      <c r="H186" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="I186" s="4" t="s">
+      <c r="I186" s="47" t="s">
         <v>154</v>
       </c>
       <c r="J186" s="4" t="s">
@@ -11762,6 +11929,8 @@
       <c r="G187" t="s">
         <v>133</v>
       </c>
+      <c r="H187" s="47"/>
+      <c r="I187" s="47"/>
       <c r="K187" s="10" t="s">
         <v>1101</v>
       </c>
@@ -11788,7 +11957,8 @@
       <c r="G188" t="s">
         <v>270</v>
       </c>
-      <c r="I188" s="4" t="s">
+      <c r="H188" s="47"/>
+      <c r="I188" s="47" t="s">
         <v>1299</v>
       </c>
       <c r="J188" s="4" t="s">
@@ -11817,6 +11987,8 @@
       <c r="G189" t="s">
         <v>270</v>
       </c>
+      <c r="H189" s="47"/>
+      <c r="I189" s="47"/>
       <c r="K189" s="10" t="s">
         <v>1302</v>
       </c>
@@ -11843,6 +12015,8 @@
       <c r="G190" t="s">
         <v>86</v>
       </c>
+      <c r="H190" s="47"/>
+      <c r="I190" s="47"/>
       <c r="J190" s="4" t="s">
         <v>1327</v>
       </c>
@@ -11852,6 +12026,10 @@
       <c r="L190" s="4" t="s">
         <v>1049</v>
       </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H191" s="47"/>
+      <c r="I191" s="47"/>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
@@ -11869,7 +12047,8 @@
       <c r="G192" t="s">
         <v>270</v>
       </c>
-      <c r="I192" s="4" t="s">
+      <c r="H192" s="47"/>
+      <c r="I192" s="47" t="s">
         <v>271</v>
       </c>
       <c r="J192" s="4" t="s">
@@ -11898,7 +12077,8 @@
       <c r="G193" t="s">
         <v>270</v>
       </c>
-      <c r="I193" s="4" t="s">
+      <c r="H193" s="47"/>
+      <c r="I193" s="47" t="s">
         <v>273</v>
       </c>
       <c r="J193" s="4" t="s">
@@ -11930,9 +12110,10 @@
       <c r="G194" t="s">
         <v>133</v>
       </c>
-      <c r="H194" s="4" t="s">
+      <c r="H194" s="47" t="s">
         <v>646</v>
       </c>
+      <c r="I194" s="47"/>
       <c r="K194" s="4" t="s">
         <v>649</v>
       </c>
@@ -11965,10 +12146,10 @@
       <c r="G195" t="s">
         <v>133</v>
       </c>
-      <c r="H195" s="4" t="s">
+      <c r="H195" s="47" t="s">
         <v>647</v>
       </c>
-      <c r="I195" s="4" t="s">
+      <c r="I195" s="47" t="s">
         <v>648</v>
       </c>
       <c r="K195" s="4" t="s">
@@ -12000,10 +12181,10 @@
       <c r="G196" t="s">
         <v>133</v>
       </c>
-      <c r="H196" s="4" t="s">
+      <c r="H196" s="47" t="s">
         <v>745</v>
       </c>
-      <c r="I196" s="4" t="s">
+      <c r="I196" s="47" t="s">
         <v>746</v>
       </c>
       <c r="K196" s="4" t="s">
@@ -12038,10 +12219,10 @@
       <c r="G197" t="s">
         <v>133</v>
       </c>
-      <c r="H197" s="4" t="s">
+      <c r="H197" s="47" t="s">
         <v>604</v>
       </c>
-      <c r="I197" s="4" t="s">
+      <c r="I197" s="47" t="s">
         <v>743</v>
       </c>
       <c r="K197" s="4" t="s">
@@ -12073,7 +12254,8 @@
       <c r="G198" t="s">
         <v>133</v>
       </c>
-      <c r="I198" s="4" t="s">
+      <c r="H198" s="47"/>
+      <c r="I198" s="47" t="s">
         <v>749</v>
       </c>
       <c r="J198" s="4" t="s">
@@ -12108,10 +12290,10 @@
       <c r="G199" t="s">
         <v>133</v>
       </c>
-      <c r="H199" s="4" t="s">
+      <c r="H199" s="47" t="s">
         <v>428</v>
       </c>
-      <c r="I199" s="4" t="s">
+      <c r="I199" s="47" t="s">
         <v>753</v>
       </c>
       <c r="K199" s="4" t="s">
@@ -12140,10 +12322,10 @@
       <c r="G200" t="s">
         <v>133</v>
       </c>
-      <c r="H200" s="4" t="s">
+      <c r="H200" s="47" t="s">
         <v>754</v>
       </c>
-      <c r="I200" s="4" t="s">
+      <c r="I200" s="47" t="s">
         <v>755</v>
       </c>
       <c r="K200" s="4" t="s">
@@ -12175,10 +12357,10 @@
       <c r="G201" t="s">
         <v>133</v>
       </c>
-      <c r="H201" s="4" t="s">
+      <c r="H201" s="47" t="s">
         <v>762</v>
       </c>
-      <c r="I201" s="4" t="s">
+      <c r="I201" s="47" t="s">
         <v>763</v>
       </c>
       <c r="K201" s="4" t="s">
@@ -12213,10 +12395,10 @@
       <c r="G202" t="s">
         <v>133</v>
       </c>
-      <c r="H202" s="4" t="s">
+      <c r="H202" s="47" t="s">
         <v>765</v>
       </c>
-      <c r="I202" s="4" t="s">
+      <c r="I202" s="47" t="s">
         <v>764</v>
       </c>
       <c r="K202" s="4" t="s">
@@ -12248,10 +12430,10 @@
       <c r="G203" t="s">
         <v>133</v>
       </c>
-      <c r="H203" s="4" t="s">
+      <c r="H203" s="47" t="s">
         <v>784</v>
       </c>
-      <c r="I203" s="4" t="s">
+      <c r="I203" s="47" t="s">
         <v>785</v>
       </c>
       <c r="K203" s="4" t="s">
@@ -12280,10 +12462,10 @@
       <c r="G204" t="s">
         <v>133</v>
       </c>
-      <c r="H204" s="4" t="s">
+      <c r="H204" s="47" t="s">
         <v>782</v>
       </c>
-      <c r="I204" s="4" t="s">
+      <c r="I204" s="47" t="s">
         <v>783</v>
       </c>
       <c r="K204" s="4" t="s">
@@ -12312,6 +12494,8 @@
       <c r="G205" t="s">
         <v>133</v>
       </c>
+      <c r="H205" s="47"/>
+      <c r="I205" s="47"/>
       <c r="K205" s="4" t="s">
         <v>813</v>
       </c>
@@ -12323,6 +12507,8 @@
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H206" s="47"/>
+      <c r="I206" s="47"/>
       <c r="K206" s="10"/>
       <c r="L206" s="10"/>
     </row>
@@ -12345,10 +12531,10 @@
       <c r="G207" t="s">
         <v>133</v>
       </c>
-      <c r="H207" s="4" t="s">
+      <c r="H207" s="47" t="s">
         <v>574</v>
       </c>
-      <c r="I207" s="4" t="s">
+      <c r="I207" s="47" t="s">
         <v>575</v>
       </c>
       <c r="K207" s="4" t="s">
@@ -12383,10 +12569,10 @@
       <c r="G208" t="s">
         <v>133</v>
       </c>
-      <c r="H208" s="4" t="s">
+      <c r="H208" s="47" t="s">
         <v>577</v>
       </c>
-      <c r="I208" s="4" t="s">
+      <c r="I208" s="47" t="s">
         <v>578</v>
       </c>
       <c r="K208" s="4" t="s">
@@ -12415,8 +12601,8 @@
       <c r="G209" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="H209" s="19"/>
-      <c r="I209" s="19" t="s">
+      <c r="H209" s="49"/>
+      <c r="I209" s="49" t="s">
         <v>1488</v>
       </c>
       <c r="J209" s="19" t="s">
@@ -12441,7 +12627,8 @@
       <c r="G210" t="s">
         <v>86</v>
       </c>
-      <c r="I210" s="4" t="s">
+      <c r="H210" s="47"/>
+      <c r="I210" s="47" t="s">
         <v>1490</v>
       </c>
       <c r="J210" s="4" t="s">
@@ -12479,10 +12666,10 @@
       <c r="G211" t="s">
         <v>15</v>
       </c>
-      <c r="H211" s="4" t="s">
+      <c r="H211" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="I211" s="4" t="s">
+      <c r="I211" s="47" t="s">
         <v>62</v>
       </c>
       <c r="J211" s="4" t="s">
@@ -12494,6 +12681,10 @@
       <c r="L211" s="4" t="s">
         <v>79</v>
       </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H212" s="47"/>
+      <c r="I212" s="47"/>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
@@ -12508,10 +12699,10 @@
       <c r="G213" t="s">
         <v>133</v>
       </c>
-      <c r="H213" s="4" t="s">
+      <c r="H213" s="47" t="s">
         <v>1062</v>
       </c>
-      <c r="I213" s="4" t="s">
+      <c r="I213" s="47" t="s">
         <v>947</v>
       </c>
       <c r="K213" s="4" t="s">
@@ -12543,10 +12734,10 @@
       <c r="G214" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="H214" s="19" t="s">
+      <c r="H214" s="49" t="s">
         <v>1383</v>
       </c>
-      <c r="I214" s="19" t="s">
+      <c r="I214" s="49" t="s">
         <v>1384</v>
       </c>
       <c r="J214" s="19"/>
@@ -12575,10 +12766,10 @@
       <c r="G215" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="H215" s="19" t="s">
+      <c r="H215" s="49" t="s">
         <v>1387</v>
       </c>
-      <c r="I215" s="19" t="s">
+      <c r="I215" s="49" t="s">
         <v>1388</v>
       </c>
       <c r="J215" s="19"/>
@@ -12604,12 +12795,18 @@
       <c r="G216" t="s">
         <v>133</v>
       </c>
+      <c r="H216" s="47"/>
+      <c r="I216" s="47"/>
       <c r="K216" s="4" t="s">
         <v>616</v>
       </c>
       <c r="L216" s="4" t="s">
         <v>1066</v>
       </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H217" s="47"/>
+      <c r="I217" s="47"/>
     </row>
     <row r="218" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
@@ -12627,10 +12824,10 @@
       <c r="G218" t="s">
         <v>15</v>
       </c>
-      <c r="H218" s="4" t="s">
+      <c r="H218" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="I218" s="4" t="s">
+      <c r="I218" s="47" t="s">
         <v>33</v>
       </c>
       <c r="J218" s="4" t="s">
@@ -12659,10 +12856,10 @@
       <c r="G219" t="s">
         <v>1312</v>
       </c>
-      <c r="H219" s="4" t="s">
+      <c r="H219" s="47" t="s">
         <v>1318</v>
       </c>
-      <c r="I219" s="4" t="s">
+      <c r="I219" s="47" t="s">
         <v>1313</v>
       </c>
       <c r="J219" s="4" t="s">
@@ -12694,10 +12891,10 @@
       <c r="G220" t="s">
         <v>1312</v>
       </c>
-      <c r="H220" s="4" t="s">
+      <c r="H220" s="47" t="s">
         <v>1320</v>
       </c>
-      <c r="I220" s="4" t="s">
+      <c r="I220" s="47" t="s">
         <v>1321</v>
       </c>
       <c r="K220" s="4" t="s">
@@ -12706,6 +12903,10 @@
       <c r="L220" s="4" t="s">
         <v>1317</v>
       </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H221" s="47"/>
+      <c r="I221" s="47"/>
     </row>
     <row r="222" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
@@ -12717,7 +12918,8 @@
       <c r="G222" t="s">
         <v>1525</v>
       </c>
-      <c r="I222" s="4" t="s">
+      <c r="H222" s="47"/>
+      <c r="I222" s="47" t="s">
         <v>1526</v>
       </c>
       <c r="J222" s="4" t="s">
@@ -12743,7 +12945,8 @@
       <c r="G223" t="s">
         <v>1525</v>
       </c>
-      <c r="I223" s="4" t="s">
+      <c r="H223" s="47"/>
+      <c r="I223" s="47" t="s">
         <v>1528</v>
       </c>
       <c r="J223" s="4" t="s">
@@ -12769,10 +12972,10 @@
       <c r="G224" s="37" t="s">
         <v>1525</v>
       </c>
-      <c r="H224" s="39" t="s">
+      <c r="H224" s="58" t="s">
         <v>1531</v>
       </c>
-      <c r="I224" s="39" t="s">
+      <c r="I224" s="58" t="s">
         <v>1569</v>
       </c>
       <c r="J224" s="39" t="s">
@@ -12795,10 +12998,10 @@
       <c r="G225" t="s">
         <v>1525</v>
       </c>
-      <c r="H225" s="4" t="s">
+      <c r="H225" s="47" t="s">
         <v>1533</v>
       </c>
-      <c r="I225" s="4" t="s">
+      <c r="I225" s="47" t="s">
         <v>1534</v>
       </c>
       <c r="J225" s="4" t="s">
@@ -12821,7 +13024,8 @@
       <c r="G226" t="s">
         <v>1525</v>
       </c>
-      <c r="I226" s="4" t="s">
+      <c r="H226" s="47"/>
+      <c r="I226" s="47" t="s">
         <v>1535</v>
       </c>
       <c r="J226" s="4" t="s">
@@ -12844,7 +13048,8 @@
       <c r="G227" t="s">
         <v>1525</v>
       </c>
-      <c r="I227" s="4" t="s">
+      <c r="H227" s="47"/>
+      <c r="I227" s="47" t="s">
         <v>847</v>
       </c>
       <c r="J227" s="4" t="s">
@@ -12867,10 +13072,10 @@
       <c r="G228" t="s">
         <v>1525</v>
       </c>
-      <c r="H228" s="4" t="s">
+      <c r="H228" s="47" t="s">
         <v>1539</v>
       </c>
-      <c r="I228" s="4" t="s">
+      <c r="I228" s="47" t="s">
         <v>1537</v>
       </c>
       <c r="J228" s="4" t="s">
@@ -12893,10 +13098,10 @@
       <c r="G229" t="s">
         <v>1525</v>
       </c>
-      <c r="H229" s="4" t="s">
+      <c r="H229" s="47" t="s">
         <v>1571</v>
       </c>
-      <c r="I229" s="4" t="s">
+      <c r="I229" s="47" t="s">
         <v>1540</v>
       </c>
       <c r="J229" s="4" t="s">
@@ -12925,10 +13130,10 @@
       <c r="G230" t="s">
         <v>1525</v>
       </c>
-      <c r="H230" s="4" t="s">
+      <c r="H230" s="47" t="s">
         <v>1566</v>
       </c>
-      <c r="I230" s="4" t="s">
+      <c r="I230" s="47" t="s">
         <v>1567</v>
       </c>
       <c r="K230" s="12" t="s">
@@ -12951,10 +13156,10 @@
       <c r="G231" t="s">
         <v>1525</v>
       </c>
-      <c r="H231" s="4" t="s">
+      <c r="H231" s="47" t="s">
         <v>1186</v>
       </c>
-      <c r="I231" s="4" t="s">
+      <c r="I231" s="47" t="s">
         <v>398</v>
       </c>
       <c r="K231" s="12" t="s">
@@ -12974,10 +13179,10 @@
       <c r="G232" t="s">
         <v>1525</v>
       </c>
-      <c r="H232" s="4" t="s">
+      <c r="H232" s="47" t="s">
         <v>1563</v>
       </c>
-      <c r="I232" s="4" t="s">
+      <c r="I232" s="47" t="s">
         <v>1564</v>
       </c>
       <c r="K232" s="12" t="s">
@@ -12997,10 +13202,10 @@
       <c r="G233" t="s">
         <v>1525</v>
       </c>
-      <c r="H233" s="4" t="s">
+      <c r="H233" s="47" t="s">
         <v>1543</v>
       </c>
-      <c r="I233" s="4" t="s">
+      <c r="I233" s="47" t="s">
         <v>1546</v>
       </c>
       <c r="K233" s="12" t="s">
@@ -13020,10 +13225,10 @@
       <c r="G234" t="s">
         <v>1525</v>
       </c>
-      <c r="H234" s="4" t="s">
+      <c r="H234" s="47" t="s">
         <v>1545</v>
       </c>
-      <c r="I234" s="4" t="s">
+      <c r="I234" s="47" t="s">
         <v>1547</v>
       </c>
       <c r="K234" s="12" t="s">
@@ -13049,7 +13254,8 @@
       <c r="G235" t="s">
         <v>1525</v>
       </c>
-      <c r="I235" s="4" t="s">
+      <c r="H235" s="47"/>
+      <c r="I235" s="47" t="s">
         <v>1548</v>
       </c>
       <c r="J235" s="4" t="s">
@@ -13075,8 +13281,8 @@
       <c r="G236" s="37" t="s">
         <v>1525</v>
       </c>
-      <c r="H236" s="39"/>
-      <c r="I236" s="39" t="s">
+      <c r="H236" s="58"/>
+      <c r="I236" s="58" t="s">
         <v>1550</v>
       </c>
       <c r="J236" s="39" t="s">
@@ -13099,7 +13305,8 @@
       <c r="G237" t="s">
         <v>1525</v>
       </c>
-      <c r="I237" s="4" t="s">
+      <c r="H237" s="47"/>
+      <c r="I237" s="47" t="s">
         <v>1552</v>
       </c>
       <c r="J237" s="4" t="s">
@@ -13125,7 +13332,8 @@
       <c r="G238" t="s">
         <v>1525</v>
       </c>
-      <c r="I238" s="4" t="s">
+      <c r="H238" s="47"/>
+      <c r="I238" s="47" t="s">
         <v>1556</v>
       </c>
       <c r="J238" s="4" t="s">
@@ -13148,7 +13356,8 @@
       <c r="G239" t="s">
         <v>1525</v>
       </c>
-      <c r="I239" s="4" t="s">
+      <c r="H239" s="47"/>
+      <c r="I239" s="47" t="s">
         <v>1558</v>
       </c>
       <c r="J239" s="4" t="s">
@@ -13171,7 +13380,8 @@
       <c r="G240" t="s">
         <v>1525</v>
       </c>
-      <c r="I240" s="4" t="s">
+      <c r="H240" s="47"/>
+      <c r="I240" s="47" t="s">
         <v>1561</v>
       </c>
       <c r="J240" s="4" t="s">
@@ -13186,6 +13396,10 @@
       <c r="M240" t="s">
         <v>1560</v>
       </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H241" s="47"/>
+      <c r="I241" s="47"/>
     </row>
     <row r="242" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
@@ -13209,10 +13423,10 @@
       <c r="G242" t="s">
         <v>15</v>
       </c>
-      <c r="H242" s="4" t="s">
+      <c r="H242" s="47" t="s">
         <v>1308</v>
       </c>
-      <c r="I242" s="2" t="s">
+      <c r="I242" s="48" t="s">
         <v>476</v>
       </c>
       <c r="K242" s="10" t="s">
@@ -13238,10 +13452,10 @@
       <c r="G243" t="s">
         <v>15</v>
       </c>
-      <c r="H243" s="4" t="s">
+      <c r="H243" s="47" t="s">
         <v>470</v>
       </c>
-      <c r="I243" s="4" t="s">
+      <c r="I243" s="47" t="s">
         <v>471</v>
       </c>
       <c r="J243" s="4" t="s">
@@ -13276,10 +13490,10 @@
       <c r="G244" t="s">
         <v>133</v>
       </c>
-      <c r="H244" s="4" t="s">
+      <c r="H244" s="47" t="s">
         <v>772</v>
       </c>
-      <c r="I244" s="4" t="s">
+      <c r="I244" s="47" t="s">
         <v>773</v>
       </c>
       <c r="K244" s="4" t="s">
@@ -13299,6 +13513,8 @@
       <c r="F245" t="s">
         <v>1351</v>
       </c>
+      <c r="H245" s="47"/>
+      <c r="I245" s="47"/>
       <c r="K245" s="10" t="s">
         <v>1610</v>
       </c>
@@ -13316,6 +13532,8 @@
       <c r="F246" t="s">
         <v>1351</v>
       </c>
+      <c r="H246" s="47"/>
+      <c r="I246" s="47"/>
       <c r="K246" s="10" t="s">
         <v>1611</v>
       </c>
@@ -13339,10 +13557,10 @@
       <c r="G247" t="s">
         <v>15</v>
       </c>
-      <c r="H247" s="4" t="s">
+      <c r="H247" s="47" t="s">
         <v>495</v>
       </c>
-      <c r="I247" s="4" t="s">
+      <c r="I247" s="47" t="s">
         <v>496</v>
       </c>
       <c r="J247" s="4" t="s">
@@ -13371,10 +13589,10 @@
       <c r="G248" t="s">
         <v>15</v>
       </c>
-      <c r="H248" s="4" t="s">
+      <c r="H248" s="47" t="s">
         <v>181</v>
       </c>
-      <c r="I248" s="4" t="s">
+      <c r="I248" s="47" t="s">
         <v>182</v>
       </c>
       <c r="J248" s="4" t="s">
@@ -13406,10 +13624,10 @@
       <c r="G249" t="s">
         <v>15</v>
       </c>
-      <c r="H249" s="4" t="s">
+      <c r="H249" s="47" t="s">
         <v>478</v>
       </c>
-      <c r="I249" s="4" t="s">
+      <c r="I249" s="47" t="s">
         <v>479</v>
       </c>
       <c r="J249" s="4" t="s">
@@ -13438,10 +13656,10 @@
       <c r="G250" t="s">
         <v>15</v>
       </c>
-      <c r="H250" s="4" t="s">
+      <c r="H250" s="47" t="s">
         <v>481</v>
       </c>
-      <c r="I250" s="4" t="s">
+      <c r="I250" s="47" t="s">
         <v>494</v>
       </c>
       <c r="K250" s="4" t="s">
@@ -13450,6 +13668,10 @@
       <c r="L250" s="4" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H251" s="47"/>
+      <c r="I251" s="47"/>
     </row>
     <row r="252" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="25" t="s">
@@ -13470,10 +13692,10 @@
       <c r="G252" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H252" s="26" t="s">
+      <c r="H252" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="I252" s="26" t="s">
+      <c r="I252" s="50" t="s">
         <v>29</v>
       </c>
       <c r="J252" s="26" t="s">
@@ -13511,10 +13733,10 @@
       <c r="G253" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H253" s="26" t="s">
+      <c r="H253" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I253" s="26" t="s">
+      <c r="I253" s="50" t="s">
         <v>75</v>
       </c>
       <c r="J253" s="26"/>
@@ -13541,7 +13763,8 @@
       <c r="G254" t="s">
         <v>15</v>
       </c>
-      <c r="I254" s="4" t="s">
+      <c r="H254" s="47"/>
+      <c r="I254" s="47" t="s">
         <v>50</v>
       </c>
       <c r="J254" s="4" t="s">
@@ -13570,7 +13793,8 @@
       <c r="G255" t="s">
         <v>15</v>
       </c>
-      <c r="I255" s="2" t="s">
+      <c r="H255" s="47"/>
+      <c r="I255" s="48" t="s">
         <v>475</v>
       </c>
       <c r="K255" s="10" t="s">
@@ -13599,10 +13823,10 @@
       <c r="G256" t="s">
         <v>15</v>
       </c>
-      <c r="H256" s="4" t="s">
+      <c r="H256" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I256" s="4" t="s">
+      <c r="I256" s="47" t="s">
         <v>17</v>
       </c>
       <c r="J256" s="4" t="s">
@@ -13634,10 +13858,10 @@
       <c r="G257" t="s">
         <v>15</v>
       </c>
-      <c r="H257" s="4">
+      <c r="H257" s="47">
         <v>1713</v>
       </c>
-      <c r="I257" s="4" t="s">
+      <c r="I257" s="47" t="s">
         <v>78</v>
       </c>
       <c r="K257" s="10" t="s">
@@ -13666,10 +13890,10 @@
       <c r="G258" t="s">
         <v>15</v>
       </c>
-      <c r="H258" s="4" t="s">
+      <c r="H258" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="I258" s="4" t="s">
+      <c r="I258" s="47" t="s">
         <v>137</v>
       </c>
       <c r="J258" s="4" t="s">
@@ -13704,6 +13928,8 @@
       <c r="G259" t="s">
         <v>15</v>
       </c>
+      <c r="H259" s="47"/>
+      <c r="I259" s="47"/>
       <c r="K259" s="4" t="s">
         <v>1600</v>
       </c>
@@ -13730,7 +13956,8 @@
       <c r="G260" t="s">
         <v>190</v>
       </c>
-      <c r="I260" s="4" t="s">
+      <c r="H260" s="47"/>
+      <c r="I260" s="47" t="s">
         <v>203</v>
       </c>
       <c r="J260" s="4" t="s">
@@ -13765,7 +13992,8 @@
       <c r="G261" t="s">
         <v>190</v>
       </c>
-      <c r="I261" s="4" t="s">
+      <c r="H261" s="47"/>
+      <c r="I261" s="47" t="s">
         <v>205</v>
       </c>
       <c r="J261" s="4" t="s">
@@ -13797,10 +14025,10 @@
       <c r="G262" t="s">
         <v>190</v>
       </c>
-      <c r="H262" s="4">
+      <c r="H262" s="47">
         <v>1834</v>
       </c>
-      <c r="I262" s="4" t="s">
+      <c r="I262" s="47" t="s">
         <v>233</v>
       </c>
       <c r="J262" s="4" t="s">
@@ -13835,10 +14063,10 @@
       <c r="G263" t="s">
         <v>190</v>
       </c>
-      <c r="H263" s="4">
+      <c r="H263" s="47">
         <v>1836</v>
       </c>
-      <c r="I263" s="4" t="s">
+      <c r="I263" s="47" t="s">
         <v>235</v>
       </c>
       <c r="J263" s="4" t="s">
@@ -13873,10 +14101,10 @@
       <c r="G264" t="s">
         <v>190</v>
       </c>
-      <c r="H264" s="4">
+      <c r="H264" s="47">
         <v>1858</v>
       </c>
-      <c r="I264" s="4" t="s">
+      <c r="I264" s="47" t="s">
         <v>241</v>
       </c>
       <c r="K264" s="4" t="s">
@@ -13908,10 +14136,10 @@
       <c r="G265" t="s">
         <v>190</v>
       </c>
-      <c r="H265" s="4">
+      <c r="H265" s="47">
         <v>1860</v>
       </c>
-      <c r="I265" s="4" t="s">
+      <c r="I265" s="47" t="s">
         <v>240</v>
       </c>
       <c r="K265" s="4" t="s">
@@ -13925,6 +14153,8 @@
       </c>
     </row>
     <row r="266" spans="1:248" x14ac:dyDescent="0.25">
+      <c r="H266" s="47"/>
+      <c r="I266" s="47"/>
       <c r="IN266" t="s">
         <v>1594</v>
       </c>
@@ -13945,10 +14175,10 @@
       <c r="G267" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H267" s="26" t="s">
+      <c r="H267" s="50" t="s">
         <v>1076</v>
       </c>
-      <c r="I267" s="26" t="s">
+      <c r="I267" s="50" t="s">
         <v>1265</v>
       </c>
       <c r="J267" s="26"/>
@@ -13975,10 +14205,10 @@
       <c r="G268" t="s">
         <v>133</v>
       </c>
-      <c r="H268" s="4" t="s">
+      <c r="H268" s="47" t="s">
         <v>1263</v>
       </c>
-      <c r="I268" s="4" t="s">
+      <c r="I268" s="47" t="s">
         <v>1264</v>
       </c>
       <c r="K268" s="4" t="s">
@@ -14007,10 +14237,10 @@
       <c r="G269" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H269" s="26" t="s">
+      <c r="H269" s="50" t="s">
         <v>1076</v>
       </c>
-      <c r="I269" s="26" t="s">
+      <c r="I269" s="50" t="s">
         <v>1265</v>
       </c>
       <c r="J269" s="26"/>
@@ -14021,6 +14251,10 @@
         <v>1259</v>
       </c>
     </row>
+    <row r="270" spans="1:248" x14ac:dyDescent="0.25">
+      <c r="H270" s="47"/>
+      <c r="I270" s="47"/>
+    </row>
     <row r="271" spans="1:248" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1406</v>
@@ -14034,6 +14268,8 @@
       <c r="G271" t="s">
         <v>133</v>
       </c>
+      <c r="H271" s="47"/>
+      <c r="I271" s="47"/>
       <c r="K271" s="4" t="s">
         <v>1727</v>
       </c>
@@ -14054,12 +14290,18 @@
       <c r="G272" t="s">
         <v>133</v>
       </c>
+      <c r="H272" s="47"/>
+      <c r="I272" s="47"/>
       <c r="K272" s="4" t="s">
         <v>1727</v>
       </c>
       <c r="L272" s="4" t="s">
         <v>1728</v>
       </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H273" s="47"/>
+      <c r="I273" s="47"/>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
@@ -14077,10 +14319,10 @@
       <c r="G274" t="s">
         <v>133</v>
       </c>
-      <c r="H274" s="4" t="s">
+      <c r="H274" s="47" t="s">
         <v>582</v>
       </c>
-      <c r="I274" s="4" t="s">
+      <c r="I274" s="47" t="s">
         <v>583</v>
       </c>
       <c r="K274" s="4" t="s">
@@ -14112,6 +14354,8 @@
       <c r="G275" t="s">
         <v>133</v>
       </c>
+      <c r="H275" s="47"/>
+      <c r="I275" s="47"/>
       <c r="K275" s="4" t="s">
         <v>589</v>
       </c>
@@ -14138,10 +14382,10 @@
       <c r="G276" t="s">
         <v>133</v>
       </c>
-      <c r="H276" s="4" t="s">
+      <c r="H276" s="47" t="s">
         <v>799</v>
       </c>
-      <c r="I276" s="4" t="s">
+      <c r="I276" s="47" t="s">
         <v>800</v>
       </c>
       <c r="K276" s="4" t="s">
@@ -14167,10 +14411,10 @@
       <c r="G277" t="s">
         <v>133</v>
       </c>
-      <c r="H277" s="4" t="s">
+      <c r="H277" s="47" t="s">
         <v>804</v>
       </c>
-      <c r="I277" s="4" t="s">
+      <c r="I277" s="47" t="s">
         <v>805</v>
       </c>
       <c r="J277" s="4" t="s">
@@ -14199,7 +14443,8 @@
       <c r="G278" t="s">
         <v>133</v>
       </c>
-      <c r="I278" s="4" t="s">
+      <c r="H278" s="47"/>
+      <c r="I278" s="47" t="s">
         <v>806</v>
       </c>
       <c r="J278" s="4" t="s">
@@ -14225,10 +14470,10 @@
       <c r="F279" t="s">
         <v>1466</v>
       </c>
-      <c r="H279" s="4" t="s">
+      <c r="H279" s="47" t="s">
         <v>1468</v>
       </c>
-      <c r="I279" s="4" t="s">
+      <c r="I279" s="47" t="s">
         <v>428</v>
       </c>
     </row>
@@ -14248,10 +14493,10 @@
       <c r="G280" t="s">
         <v>133</v>
       </c>
-      <c r="H280" s="4" t="s">
+      <c r="H280" s="47" t="s">
         <v>1707</v>
       </c>
-      <c r="I280" s="4" t="s">
+      <c r="I280" s="47" t="s">
         <v>1708</v>
       </c>
       <c r="K280" s="4" t="s">
@@ -14277,10 +14522,10 @@
       <c r="G281" t="s">
         <v>133</v>
       </c>
-      <c r="H281" s="4" t="s">
+      <c r="H281" s="47" t="s">
         <v>1709</v>
       </c>
-      <c r="I281" s="4" t="s">
+      <c r="I281" s="47" t="s">
         <v>1710</v>
       </c>
       <c r="K281" s="4" t="s">
@@ -14289,6 +14534,10 @@
       <c r="L281" s="4" t="s">
         <v>1704</v>
       </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H282" s="47"/>
+      <c r="I282" s="47"/>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
@@ -14306,7 +14555,8 @@
       <c r="G283" t="s">
         <v>133</v>
       </c>
-      <c r="I283" s="4" t="s">
+      <c r="H283" s="47"/>
+      <c r="I283" s="47" t="s">
         <v>1202</v>
       </c>
       <c r="J283" s="4" t="s">
@@ -14341,7 +14591,8 @@
       <c r="G284" t="s">
         <v>133</v>
       </c>
-      <c r="I284" s="4" t="s">
+      <c r="H284" s="47"/>
+      <c r="I284" s="47" t="s">
         <v>1197</v>
       </c>
       <c r="J284" s="4" t="s">
@@ -14379,10 +14630,10 @@
       <c r="G285" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="H285" s="32" t="s">
+      <c r="H285" s="57" t="s">
         <v>1206</v>
       </c>
-      <c r="I285" s="32" t="s">
+      <c r="I285" s="57" t="s">
         <v>1207</v>
       </c>
       <c r="J285" s="32"/>
@@ -14412,10 +14663,10 @@
       <c r="G286" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="H286" s="32" t="s">
+      <c r="H286" s="57" t="s">
         <v>1210</v>
       </c>
-      <c r="I286" s="32" t="s">
+      <c r="I286" s="57" t="s">
         <v>241</v>
       </c>
       <c r="J286" s="32"/>
@@ -14442,10 +14693,10 @@
       <c r="G287" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H287" s="26" t="s">
+      <c r="H287" s="50" t="s">
         <v>1082</v>
       </c>
-      <c r="I287" s="26" t="s">
+      <c r="I287" s="50" t="s">
         <v>1083</v>
       </c>
       <c r="J287" s="26"/>
@@ -14456,6 +14707,14 @@
         <v>1208</v>
       </c>
     </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H288" s="47"/>
+      <c r="I288" s="47"/>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H289" s="47"/>
+      <c r="I289" s="47"/>
+    </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>990</v>
@@ -14472,10 +14731,10 @@
       <c r="G290" t="s">
         <v>133</v>
       </c>
-      <c r="H290" s="4" t="s">
+      <c r="H290" s="47" t="s">
         <v>995</v>
       </c>
-      <c r="I290" s="4" t="s">
+      <c r="I290" s="47" t="s">
         <v>996</v>
       </c>
       <c r="K290" s="4" t="s">
@@ -14501,10 +14760,10 @@
       <c r="G291" t="s">
         <v>133</v>
       </c>
-      <c r="H291" s="4" t="s">
+      <c r="H291" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="I291" s="4" t="s">
+      <c r="I291" s="47" t="s">
         <v>994</v>
       </c>
       <c r="K291" s="4" t="s">
@@ -14533,10 +14792,10 @@
       <c r="G292" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="H292" s="32" t="s">
+      <c r="H292" s="57" t="s">
         <v>1075</v>
       </c>
-      <c r="I292" s="32" t="s">
+      <c r="I292" s="57" t="s">
         <v>1076</v>
       </c>
       <c r="J292" s="32"/>
@@ -14566,10 +14825,10 @@
       <c r="G293" t="s">
         <v>133</v>
       </c>
-      <c r="H293" s="4" t="s">
+      <c r="H293" s="47" t="s">
         <v>1079</v>
       </c>
-      <c r="I293" s="4" t="s">
+      <c r="I293" s="47" t="s">
         <v>241</v>
       </c>
       <c r="K293" s="4" t="s">
@@ -14595,10 +14854,10 @@
       <c r="G294" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H294" s="26" t="s">
+      <c r="H294" s="50" t="s">
         <v>1082</v>
       </c>
-      <c r="I294" s="26" t="s">
+      <c r="I294" s="50" t="s">
         <v>1083</v>
       </c>
       <c r="J294" s="26"/>
@@ -14625,6 +14884,8 @@
       <c r="G295" t="s">
         <v>133</v>
       </c>
+      <c r="H295" s="47"/>
+      <c r="I295" s="47"/>
       <c r="K295" s="4" t="s">
         <v>977</v>
       </c>
@@ -14651,6 +14912,8 @@
       <c r="G296" t="s">
         <v>133</v>
       </c>
+      <c r="H296" s="47"/>
+      <c r="I296" s="47"/>
       <c r="K296" s="4" t="s">
         <v>977</v>
       </c>
@@ -14660,6 +14923,10 @@
       <c r="M296" t="s">
         <v>979</v>
       </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H297" s="47"/>
+      <c r="I297" s="47"/>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
@@ -14680,7 +14947,8 @@
       <c r="G298" t="s">
         <v>133</v>
       </c>
-      <c r="I298" s="4" t="s">
+      <c r="H298" s="47"/>
+      <c r="I298" s="47" t="s">
         <v>140</v>
       </c>
       <c r="J298" s="4" t="s">
@@ -14712,7 +14980,8 @@
       <c r="G299" t="s">
         <v>133</v>
       </c>
-      <c r="I299" s="4" t="s">
+      <c r="H299" s="47"/>
+      <c r="I299" s="47" t="s">
         <v>139</v>
       </c>
       <c r="J299" s="4" t="s">
@@ -14744,7 +15013,8 @@
       <c r="G300" t="s">
         <v>133</v>
       </c>
-      <c r="I300" s="4" t="s">
+      <c r="H300" s="47"/>
+      <c r="I300" s="47" t="s">
         <v>142</v>
       </c>
       <c r="J300" s="4" t="s">
@@ -14776,7 +15046,8 @@
       <c r="G301" t="s">
         <v>133</v>
       </c>
-      <c r="I301" s="4" t="s">
+      <c r="H301" s="47"/>
+      <c r="I301" s="47" t="s">
         <v>144</v>
       </c>
       <c r="J301" s="4" t="s">
@@ -14805,7 +15076,8 @@
       <c r="G302" t="s">
         <v>133</v>
       </c>
-      <c r="I302" s="4" t="s">
+      <c r="H302" s="47"/>
+      <c r="I302" s="47" t="s">
         <v>145</v>
       </c>
       <c r="J302" s="4" t="s">
@@ -14834,10 +15106,10 @@
       <c r="G303" t="s">
         <v>133</v>
       </c>
-      <c r="H303" s="4" t="s">
+      <c r="H303" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="I303" s="4" t="s">
+      <c r="I303" s="47" t="s">
         <v>156</v>
       </c>
       <c r="J303" s="4" t="s">
@@ -14869,10 +15141,10 @@
       <c r="G304" t="s">
         <v>133</v>
       </c>
-      <c r="H304" s="4" t="s">
+      <c r="H304" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="I304" s="4" t="s">
+      <c r="I304" s="47" t="s">
         <v>159</v>
       </c>
       <c r="J304" s="4" t="s">
@@ -14901,10 +15173,10 @@
       <c r="G305" t="s">
         <v>133</v>
       </c>
-      <c r="H305" s="4" t="s">
+      <c r="H305" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="I305" s="4" t="s">
+      <c r="I305" s="47" t="s">
         <v>162</v>
       </c>
       <c r="J305" s="4" t="s">
@@ -14933,8 +15205,8 @@
       <c r="G306" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H306" s="35"/>
-      <c r="I306" s="35"/>
+      <c r="H306" s="59"/>
+      <c r="I306" s="59"/>
       <c r="J306" s="35"/>
       <c r="K306" s="35" t="s">
         <v>134</v>
@@ -14962,6 +15234,8 @@
       <c r="G307" t="s">
         <v>174</v>
       </c>
+      <c r="H307" s="47"/>
+      <c r="I307" s="47"/>
       <c r="K307" s="4" t="s">
         <v>1469</v>
       </c>
@@ -14985,10 +15259,10 @@
       <c r="G308" t="s">
         <v>133</v>
       </c>
-      <c r="H308" s="4" t="s">
+      <c r="H308" s="47" t="s">
         <v>1371</v>
       </c>
-      <c r="I308" s="4" t="s">
+      <c r="I308" s="47" t="s">
         <v>1372</v>
       </c>
       <c r="K308" s="4" t="s">
@@ -15020,10 +15294,10 @@
       <c r="G309" t="s">
         <v>133</v>
       </c>
-      <c r="H309" s="4" t="s">
+      <c r="H309" s="47" t="s">
         <v>1376</v>
       </c>
-      <c r="I309" s="4" t="s">
+      <c r="I309" s="47" t="s">
         <v>1377</v>
       </c>
       <c r="K309" s="4" t="s">
@@ -15058,10 +15332,10 @@
       <c r="G310" t="s">
         <v>133</v>
       </c>
-      <c r="H310" s="4" t="s">
+      <c r="H310" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="I310" s="4" t="s">
+      <c r="I310" s="47" t="s">
         <v>1394</v>
       </c>
       <c r="K310" s="4" t="s">
@@ -15093,10 +15367,10 @@
       <c r="G311" t="s">
         <v>133</v>
       </c>
-      <c r="H311" s="4" t="s">
+      <c r="H311" s="47" t="s">
         <v>1392</v>
       </c>
-      <c r="I311" s="4" t="s">
+      <c r="I311" s="47" t="s">
         <v>1393</v>
       </c>
       <c r="K311" s="4" t="s">
@@ -15108,6 +15382,10 @@
       <c r="M311" t="s">
         <v>1397</v>
       </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H312" s="47"/>
+      <c r="I312" s="47"/>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
@@ -15125,7 +15403,8 @@
       <c r="G313" t="s">
         <v>133</v>
       </c>
-      <c r="I313" s="4" t="s">
+      <c r="H313" s="47"/>
+      <c r="I313" s="47" t="s">
         <v>1115</v>
       </c>
       <c r="J313" s="4" t="s">
@@ -15157,7 +15436,8 @@
       <c r="G314" t="s">
         <v>133</v>
       </c>
-      <c r="I314" s="4" t="s">
+      <c r="H314" s="47"/>
+      <c r="I314" s="47" t="s">
         <v>1110</v>
       </c>
       <c r="J314" s="4" t="s">
@@ -15189,7 +15469,8 @@
       <c r="G315" t="s">
         <v>133</v>
       </c>
-      <c r="I315" s="4" t="s">
+      <c r="H315" s="47"/>
+      <c r="I315" s="47" t="s">
         <v>1410</v>
       </c>
       <c r="J315" s="4" t="s">
@@ -15227,7 +15508,8 @@
       <c r="G316" t="s">
         <v>133</v>
       </c>
-      <c r="I316" s="4" t="s">
+      <c r="H316" s="47"/>
+      <c r="I316" s="47" t="s">
         <v>1408</v>
       </c>
       <c r="J316" s="4" t="s">
@@ -15259,10 +15541,10 @@
       <c r="G317" t="s">
         <v>15</v>
       </c>
-      <c r="H317" s="4" t="s">
+      <c r="H317" s="47" t="s">
         <v>488</v>
       </c>
-      <c r="I317" s="4" t="s">
+      <c r="I317" s="47" t="s">
         <v>489</v>
       </c>
       <c r="J317" s="4" t="s">
@@ -15294,10 +15576,10 @@
       <c r="G318" t="s">
         <v>15</v>
       </c>
-      <c r="H318" s="4" t="s">
+      <c r="H318" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="I318" s="4" t="s">
+      <c r="I318" s="47" t="s">
         <v>491</v>
       </c>
       <c r="J318" s="4" t="s">
@@ -15326,10 +15608,10 @@
       <c r="G319" t="s">
         <v>15</v>
       </c>
-      <c r="H319" s="4" t="s">
+      <c r="H319" s="47" t="s">
         <v>485</v>
       </c>
-      <c r="I319" s="4" t="s">
+      <c r="I319" s="47" t="s">
         <v>486</v>
       </c>
       <c r="J319" s="4" t="s">
@@ -15361,10 +15643,10 @@
       <c r="G320" t="s">
         <v>15</v>
       </c>
-      <c r="H320" s="4" t="s">
+      <c r="H320" s="47" t="s">
         <v>484</v>
       </c>
-      <c r="I320" s="4" t="s">
+      <c r="I320" s="47" t="s">
         <v>483</v>
       </c>
       <c r="J320" s="4" t="s">
@@ -15396,10 +15678,10 @@
       <c r="G321" t="s">
         <v>133</v>
       </c>
-      <c r="H321" s="4" t="s">
+      <c r="H321" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="I321" s="4" t="s">
+      <c r="I321" s="47" t="s">
         <v>354</v>
       </c>
       <c r="K321" s="4" t="s">
@@ -15428,10 +15710,10 @@
       <c r="G322" t="s">
         <v>133</v>
       </c>
-      <c r="H322" s="4" t="s">
+      <c r="H322" s="47" t="s">
         <v>352</v>
       </c>
-      <c r="I322" s="4" t="s">
+      <c r="I322" s="47" t="s">
         <v>355</v>
       </c>
       <c r="K322" s="4" t="s">
@@ -15457,6 +15739,8 @@
       <c r="G323" t="s">
         <v>15</v>
       </c>
+      <c r="H323" s="47"/>
+      <c r="I323" s="47"/>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
@@ -15474,10 +15758,10 @@
       <c r="G324" t="s">
         <v>15</v>
       </c>
-      <c r="H324" s="4" t="s">
+      <c r="H324" s="47" t="s">
         <v>1366</v>
       </c>
-      <c r="I324" s="4" t="s">
+      <c r="I324" s="47" t="s">
         <v>1367</v>
       </c>
     </row>
@@ -15494,6 +15778,8 @@
       <c r="G325" t="s">
         <v>133</v>
       </c>
+      <c r="H325" s="47"/>
+      <c r="I325" s="47"/>
       <c r="K325" s="4" t="s">
         <v>988</v>
       </c>
@@ -15517,6 +15803,8 @@
       <c r="G326" t="s">
         <v>133</v>
       </c>
+      <c r="H326" s="47"/>
+      <c r="I326" s="47"/>
       <c r="K326" s="4" t="s">
         <v>983</v>
       </c>
@@ -15531,6 +15819,8 @@
       <c r="G327" t="s">
         <v>133</v>
       </c>
+      <c r="H327" s="47"/>
+      <c r="I327" s="47"/>
       <c r="K327" s="4" t="s">
         <v>983</v>
       </c>
@@ -15545,6 +15835,8 @@
       <c r="G328" t="s">
         <v>133</v>
       </c>
+      <c r="H328" s="47"/>
+      <c r="I328" s="47"/>
       <c r="K328" s="4" t="s">
         <v>983</v>
       </c>
@@ -15559,12 +15851,22 @@
       <c r="G329" t="s">
         <v>133</v>
       </c>
+      <c r="H329" s="47"/>
+      <c r="I329" s="47"/>
       <c r="K329" s="4" t="s">
         <v>983</v>
       </c>
       <c r="L329" s="4" t="s">
         <v>984</v>
       </c>
+    </row>
+    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H330" s="47"/>
+      <c r="I330" s="47"/>
+    </row>
+    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H331" s="47"/>
+      <c r="I331" s="47"/>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
@@ -15582,7 +15884,8 @@
       <c r="G332" t="s">
         <v>133</v>
       </c>
-      <c r="I332" s="4" t="s">
+      <c r="H332" s="47"/>
+      <c r="I332" s="47" t="s">
         <v>570</v>
       </c>
       <c r="K332" s="4" t="s">
@@ -15594,6 +15897,10 @@
       <c r="M332" s="4" t="s">
         <v>1575</v>
       </c>
+    </row>
+    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H333" s="47"/>
+      <c r="I333" s="47"/>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
@@ -15614,6 +15921,8 @@
       <c r="G334" t="s">
         <v>86</v>
       </c>
+      <c r="H334" s="47"/>
+      <c r="I334" s="47"/>
       <c r="K334" s="4" t="s">
         <v>88</v>
       </c>
@@ -15643,10 +15952,10 @@
       <c r="G335" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="H335" s="38" t="s">
+      <c r="H335" s="60" t="s">
         <v>309</v>
       </c>
-      <c r="I335" s="38" t="s">
+      <c r="I335" s="60" t="s">
         <v>310</v>
       </c>
       <c r="J335" s="38"/>
@@ -15676,10 +15985,10 @@
       <c r="G336" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="H336" s="38" t="s">
+      <c r="H336" s="60" t="s">
         <v>313</v>
       </c>
-      <c r="I336" s="38" t="s">
+      <c r="I336" s="60" t="s">
         <v>314</v>
       </c>
       <c r="J336" s="38"/>
@@ -15709,7 +16018,8 @@
       <c r="G337" t="s">
         <v>133</v>
       </c>
-      <c r="I337" s="4" t="s">
+      <c r="H337" s="47"/>
+      <c r="I337" s="47" t="s">
         <v>284</v>
       </c>
       <c r="J337" s="4" t="s">
@@ -15738,10 +16048,10 @@
       <c r="G338" t="s">
         <v>133</v>
       </c>
-      <c r="H338" s="4" t="s">
+      <c r="H338" s="47" t="s">
         <v>604</v>
       </c>
-      <c r="I338" s="4" t="s">
+      <c r="I338" s="47" t="s">
         <v>605</v>
       </c>
       <c r="K338" s="4" t="s">
@@ -15770,10 +16080,10 @@
       <c r="G339" t="s">
         <v>133</v>
       </c>
-      <c r="H339" s="4" t="s">
+      <c r="H339" s="47" t="s">
         <v>603</v>
       </c>
-      <c r="I339" s="4" t="s">
+      <c r="I339" s="47" t="s">
         <v>606</v>
       </c>
       <c r="K339" s="4" t="s">
@@ -15802,10 +16112,10 @@
       <c r="G340" t="s">
         <v>133</v>
       </c>
-      <c r="H340" s="4" t="s">
+      <c r="H340" s="47" t="s">
         <v>601</v>
       </c>
-      <c r="I340" s="4" t="s">
+      <c r="I340" s="47" t="s">
         <v>602</v>
       </c>
       <c r="K340" s="4" t="s">
@@ -15834,10 +16144,10 @@
       <c r="G341" t="s">
         <v>133</v>
       </c>
-      <c r="H341" s="4" t="s">
+      <c r="H341" s="47" t="s">
         <v>691</v>
       </c>
-      <c r="I341" s="4" t="s">
+      <c r="I341" s="47" t="s">
         <v>692</v>
       </c>
       <c r="J341" s="4" t="s">
@@ -15869,10 +16179,10 @@
       <c r="G342" t="s">
         <v>133</v>
       </c>
-      <c r="H342" s="4" t="s">
+      <c r="H342" s="47" t="s">
         <v>710</v>
       </c>
-      <c r="I342" s="4" t="s">
+      <c r="I342" s="47" t="s">
         <v>710</v>
       </c>
       <c r="K342" s="4" t="s">
@@ -15901,7 +16211,8 @@
       <c r="G343" t="s">
         <v>133</v>
       </c>
-      <c r="I343" s="4" t="s">
+      <c r="H343" s="47"/>
+      <c r="I343" s="47" t="s">
         <v>713</v>
       </c>
       <c r="J343" s="4" t="s">
@@ -15939,7 +16250,8 @@
       <c r="G344" t="s">
         <v>133</v>
       </c>
-      <c r="I344" s="4" t="s">
+      <c r="H344" s="47"/>
+      <c r="I344" s="47" t="s">
         <v>716</v>
       </c>
       <c r="J344" s="4" t="s">
@@ -15974,8 +16286,8 @@
       <c r="G345" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H345" s="35"/>
-      <c r="I345" s="35" t="s">
+      <c r="H345" s="59"/>
+      <c r="I345" s="59" t="s">
         <v>719</v>
       </c>
       <c r="J345" s="35" t="s">
@@ -16007,7 +16319,8 @@
       <c r="G346" t="s">
         <v>133</v>
       </c>
-      <c r="I346" s="4" t="s">
+      <c r="H346" s="47"/>
+      <c r="I346" s="47" t="s">
         <v>726</v>
       </c>
       <c r="J346" s="4" t="s">
@@ -16042,7 +16355,8 @@
       <c r="G347" t="s">
         <v>133</v>
       </c>
-      <c r="I347" s="4" t="s">
+      <c r="H347" s="47"/>
+      <c r="I347" s="47" t="s">
         <v>730</v>
       </c>
       <c r="J347" s="4" t="s">
@@ -16080,8 +16394,8 @@
       <c r="G348" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H348" s="35"/>
-      <c r="I348" s="35" t="s">
+      <c r="H348" s="59"/>
+      <c r="I348" s="59" t="s">
         <v>734</v>
       </c>
       <c r="J348" s="35" t="s">
@@ -16110,10 +16424,10 @@
       <c r="G349" t="s">
         <v>133</v>
       </c>
-      <c r="H349" s="4" t="s">
+      <c r="H349" s="47" t="s">
         <v>789</v>
       </c>
-      <c r="I349" s="4" t="s">
+      <c r="I349" s="47" t="s">
         <v>790</v>
       </c>
       <c r="K349" s="4" t="s">
@@ -16142,7 +16456,8 @@
       <c r="G350" t="s">
         <v>133</v>
       </c>
-      <c r="I350" s="4" t="s">
+      <c r="H350" s="47"/>
+      <c r="I350" s="47" t="s">
         <v>793</v>
       </c>
       <c r="J350" s="4" t="s">
@@ -16174,10 +16489,10 @@
       <c r="G351" t="s">
         <v>133</v>
       </c>
-      <c r="H351" s="4" t="s">
+      <c r="H351" s="47" t="s">
         <v>795</v>
       </c>
-      <c r="I351" s="4" t="s">
+      <c r="I351" s="47" t="s">
         <v>796</v>
       </c>
       <c r="K351" s="4" t="s">
@@ -16206,10 +16521,10 @@
       <c r="G352" t="s">
         <v>133</v>
       </c>
-      <c r="H352" s="4" t="s">
+      <c r="H352" s="47" t="s">
         <v>857</v>
       </c>
-      <c r="I352" s="4" t="s">
+      <c r="I352" s="47" t="s">
         <v>858</v>
       </c>
       <c r="K352" s="4" t="s">
@@ -16241,10 +16556,10 @@
       <c r="G353" t="s">
         <v>133</v>
       </c>
-      <c r="H353" s="4" t="s">
+      <c r="H353" s="47" t="s">
         <v>864</v>
       </c>
-      <c r="I353" s="4" t="s">
+      <c r="I353" s="47" t="s">
         <v>865</v>
       </c>
       <c r="K353" s="4" t="s">
@@ -16276,10 +16591,10 @@
       <c r="G354" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="H354" s="39" t="s">
+      <c r="H354" s="58" t="s">
         <v>602</v>
       </c>
-      <c r="I354" s="39" t="s">
+      <c r="I354" s="58" t="s">
         <v>866</v>
       </c>
       <c r="J354" s="39"/>
@@ -16309,10 +16624,10 @@
       <c r="G355" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="H355" s="41" t="s">
+      <c r="H355" s="55" t="s">
         <v>867</v>
       </c>
-      <c r="I355" s="41" t="s">
+      <c r="I355" s="55" t="s">
         <v>868</v>
       </c>
       <c r="J355" s="41"/>
@@ -16342,10 +16657,10 @@
       <c r="G356" t="s">
         <v>133</v>
       </c>
-      <c r="H356" s="4" t="s">
+      <c r="H356" s="47" t="s">
         <v>869</v>
       </c>
-      <c r="I356" s="4" t="s">
+      <c r="I356" s="47" t="s">
         <v>870</v>
       </c>
       <c r="K356" s="4" t="s">
@@ -16374,6 +16689,8 @@
       <c r="G357" t="s">
         <v>133</v>
       </c>
+      <c r="H357" s="47"/>
+      <c r="I357" s="47"/>
       <c r="K357" s="4" t="s">
         <v>1053</v>
       </c>
@@ -16397,6 +16714,8 @@
       <c r="G358" t="s">
         <v>133</v>
       </c>
+      <c r="H358" s="47"/>
+      <c r="I358" s="47"/>
       <c r="K358" s="4" t="s">
         <v>1055</v>
       </c>
@@ -16421,10 +16740,10 @@
       <c r="G359" t="s">
         <v>133</v>
       </c>
-      <c r="H359" s="4" t="s">
+      <c r="H359" s="47" t="s">
         <v>1063</v>
       </c>
-      <c r="I359" s="4" t="s">
+      <c r="I359" s="47" t="s">
         <v>1064</v>
       </c>
       <c r="K359" s="4" t="s">
@@ -16454,7 +16773,8 @@
       <c r="G360" t="s">
         <v>133</v>
       </c>
-      <c r="I360" s="4" t="s">
+      <c r="H360" s="47"/>
+      <c r="I360" s="47" t="s">
         <v>1094</v>
       </c>
       <c r="J360" s="4" t="s">
@@ -16487,10 +16807,10 @@
       <c r="G361" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="H361" s="41" t="s">
+      <c r="H361" s="55" t="s">
         <v>1401</v>
       </c>
-      <c r="I361" s="41" t="s">
+      <c r="I361" s="55" t="s">
         <v>1402</v>
       </c>
       <c r="J361" s="41"/>
@@ -16526,10 +16846,10 @@
       <c r="G362" t="s">
         <v>133</v>
       </c>
-      <c r="H362" s="4" t="s">
+      <c r="H362" s="47" t="s">
         <v>1087</v>
       </c>
-      <c r="I362" s="4" t="s">
+      <c r="I362" s="47" t="s">
         <v>1403</v>
       </c>
       <c r="K362" s="4" t="s">
@@ -16543,6 +16863,8 @@
       </c>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H363" s="47"/>
+      <c r="I363" s="47"/>
       <c r="M363" s="4"/>
     </row>
     <row r="364" spans="1:13" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -16561,10 +16883,10 @@
       <c r="G364" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H364" s="32" t="s">
+      <c r="H364" s="57" t="s">
         <v>886</v>
       </c>
-      <c r="I364" s="32" t="s">
+      <c r="I364" s="57" t="s">
         <v>887</v>
       </c>
       <c r="J364" s="32" t="s">
@@ -16593,10 +16915,10 @@
       <c r="G365" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H365" s="32" t="s">
+      <c r="H365" s="57" t="s">
         <v>999</v>
       </c>
-      <c r="I365" s="32" t="s">
+      <c r="I365" s="57" t="s">
         <v>1000</v>
       </c>
       <c r="J365" s="32" t="s">
@@ -16628,10 +16950,10 @@
       <c r="G366" t="s">
         <v>15</v>
       </c>
-      <c r="H366" s="4" t="s">
+      <c r="H366" s="47" t="s">
         <v>1003</v>
       </c>
-      <c r="I366" s="4" t="s">
+      <c r="I366" s="47" t="s">
         <v>1004</v>
       </c>
       <c r="K366" s="10" t="s">
@@ -16640,6 +16962,10 @@
       <c r="L366" s="4" t="s">
         <v>1005</v>
       </c>
+    </row>
+    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H367" s="47"/>
+      <c r="I367" s="47"/>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
@@ -16657,6 +16983,8 @@
       <c r="G368" t="s">
         <v>133</v>
       </c>
+      <c r="H368" s="47"/>
+      <c r="I368" s="47"/>
       <c r="K368" s="4" t="s">
         <v>612</v>
       </c>
@@ -16683,6 +17011,8 @@
       <c r="G369" t="s">
         <v>133</v>
       </c>
+      <c r="H369" s="47"/>
+      <c r="I369" s="47"/>
       <c r="K369" s="4" t="s">
         <v>612</v>
       </c>
@@ -16712,6 +17042,8 @@
       <c r="G370" t="s">
         <v>270</v>
       </c>
+      <c r="H370" s="47"/>
+      <c r="I370" s="47"/>
       <c r="K370" s="4" t="s">
         <v>1295</v>
       </c>
@@ -16719,6 +17051,10 @@
         <v>1285</v>
       </c>
       <c r="M370" s="4"/>
+    </row>
+    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H371" s="47"/>
+      <c r="I371" s="47"/>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
@@ -16739,10 +17075,10 @@
       <c r="G372" t="s">
         <v>133</v>
       </c>
-      <c r="H372" s="4" t="s">
+      <c r="H372" s="47" t="s">
         <v>847</v>
       </c>
-      <c r="I372" s="4" t="s">
+      <c r="I372" s="47" t="s">
         <v>1470</v>
       </c>
       <c r="K372" s="4" t="s">
@@ -16774,10 +17110,10 @@
       <c r="G373" t="s">
         <v>133</v>
       </c>
-      <c r="H373" s="4" t="s">
+      <c r="H373" s="47" t="s">
         <v>812</v>
       </c>
-      <c r="I373" s="4" t="s">
+      <c r="I373" s="47" t="s">
         <v>1470</v>
       </c>
       <c r="K373" s="4" t="s">
@@ -16809,10 +17145,10 @@
       <c r="G374" t="s">
         <v>133</v>
       </c>
-      <c r="H374" s="4" t="s">
+      <c r="H374" s="47" t="s">
         <v>521</v>
       </c>
-      <c r="I374" s="4" t="s">
+      <c r="I374" s="47" t="s">
         <v>522</v>
       </c>
       <c r="J374" s="4" t="s">
@@ -16850,10 +17186,10 @@
       <c r="G375" t="s">
         <v>133</v>
       </c>
-      <c r="H375" s="4" t="s">
+      <c r="H375" s="47" t="s">
         <v>530</v>
       </c>
-      <c r="I375" s="4" t="s">
+      <c r="I375" s="47" t="s">
         <v>531</v>
       </c>
       <c r="K375" s="4" t="s">
@@ -16885,10 +17221,10 @@
       <c r="G376" t="s">
         <v>133</v>
       </c>
-      <c r="H376" s="4" t="s">
+      <c r="H376" s="47" t="s">
         <v>533</v>
       </c>
-      <c r="I376" s="4" t="s">
+      <c r="I376" s="47" t="s">
         <v>534</v>
       </c>
       <c r="K376" s="4" t="s">
@@ -16920,10 +17256,10 @@
       <c r="G377" t="s">
         <v>133</v>
       </c>
-      <c r="H377" s="4" t="s">
+      <c r="H377" s="47" t="s">
         <v>1086</v>
       </c>
-      <c r="I377" s="4" t="s">
+      <c r="I377" s="47" t="s">
         <v>1087</v>
       </c>
       <c r="K377" s="4" t="s">
@@ -16952,10 +17288,10 @@
       <c r="G378" t="s">
         <v>133</v>
       </c>
-      <c r="H378" s="4" t="s">
+      <c r="H378" s="47" t="s">
         <v>1090</v>
       </c>
-      <c r="I378" s="4" t="s">
+      <c r="I378" s="47" t="s">
         <v>1091</v>
       </c>
       <c r="K378" s="4" t="s">
@@ -16964,6 +17300,14 @@
       <c r="L378" s="4" t="s">
         <v>1089</v>
       </c>
+    </row>
+    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H379" s="47"/>
+      <c r="I379" s="47"/>
+    </row>
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H380" s="47"/>
+      <c r="I380" s="47"/>
     </row>
     <row r="381" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="25" t="s">
@@ -16984,10 +17328,10 @@
       <c r="G381" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H381" s="26" t="s">
+      <c r="H381" s="50" t="s">
         <v>1242</v>
       </c>
-      <c r="I381" s="26" t="s">
+      <c r="I381" s="50" t="s">
         <v>1245</v>
       </c>
       <c r="J381" s="26"/>
@@ -17020,10 +17364,10 @@
       <c r="G382" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H382" s="26" t="s">
+      <c r="H382" s="50" t="s">
         <v>1243</v>
       </c>
-      <c r="I382" s="26" t="s">
+      <c r="I382" s="50" t="s">
         <v>1244</v>
       </c>
       <c r="J382" s="26"/>
@@ -17056,10 +17400,10 @@
       <c r="G383" t="s">
         <v>133</v>
       </c>
-      <c r="H383" s="4" t="s">
+      <c r="H383" s="47" t="s">
         <v>998</v>
       </c>
-      <c r="I383" s="4" t="s">
+      <c r="I383" s="47" t="s">
         <v>241</v>
       </c>
       <c r="K383" s="4" t="s">
@@ -17088,10 +17432,10 @@
       <c r="G384" t="s">
         <v>133</v>
       </c>
-      <c r="H384" s="4" t="s">
+      <c r="H384" s="47" t="s">
         <v>848</v>
       </c>
-      <c r="I384" s="4" t="s">
+      <c r="I384" s="47" t="s">
         <v>235</v>
       </c>
       <c r="K384" s="4" t="s">
@@ -17120,10 +17464,10 @@
       <c r="G385" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="H385" s="30" t="s">
+      <c r="H385" s="52" t="s">
         <v>847</v>
       </c>
-      <c r="I385" s="30" t="s">
+      <c r="I385" s="52" t="s">
         <v>1240</v>
       </c>
       <c r="J385" s="30"/>
@@ -17153,10 +17497,10 @@
       <c r="G386" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="H386" s="30" t="s">
+      <c r="H386" s="52" t="s">
         <v>592</v>
       </c>
-      <c r="I386" s="30" t="s">
+      <c r="I386" s="52" t="s">
         <v>1188</v>
       </c>
       <c r="J386" s="30"/>
@@ -17186,10 +17530,10 @@
       <c r="G387" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="H387" s="30" t="s">
+      <c r="H387" s="52" t="s">
         <v>428</v>
       </c>
-      <c r="I387" s="30" t="s">
+      <c r="I387" s="52" t="s">
         <v>1187</v>
       </c>
       <c r="J387" s="30"/>
@@ -17219,10 +17563,10 @@
       <c r="G388" t="s">
         <v>133</v>
       </c>
-      <c r="H388" s="4" t="s">
+      <c r="H388" s="47" t="s">
         <v>405</v>
       </c>
-      <c r="I388" s="4" t="s">
+      <c r="I388" s="47" t="s">
         <v>406</v>
       </c>
       <c r="K388" s="4" t="s">
@@ -17251,10 +17595,10 @@
       <c r="G389" t="s">
         <v>133</v>
       </c>
-      <c r="H389" s="4" t="s">
+      <c r="H389" s="47" t="s">
         <v>411</v>
       </c>
-      <c r="I389" s="4" t="s">
+      <c r="I389" s="47" t="s">
         <v>412</v>
       </c>
       <c r="K389" s="4" t="s">
@@ -17283,10 +17627,10 @@
       <c r="G390" t="s">
         <v>133</v>
       </c>
-      <c r="H390" s="4" t="s">
+      <c r="H390" s="47" t="s">
         <v>869</v>
       </c>
-      <c r="I390" s="4" t="s">
+      <c r="I390" s="47" t="s">
         <v>642</v>
       </c>
       <c r="K390" s="4" t="s">
@@ -17312,8 +17656,8 @@
       <c r="G391" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="H391" s="30"/>
-      <c r="I391" s="30"/>
+      <c r="H391" s="52"/>
+      <c r="I391" s="52"/>
       <c r="J391" s="30"/>
       <c r="K391" s="30" t="s">
         <v>413</v>
@@ -17338,6 +17682,8 @@
       <c r="G392" t="s">
         <v>133</v>
       </c>
+      <c r="H392" s="47"/>
+      <c r="I392" s="47"/>
       <c r="K392" s="4" t="s">
         <v>413</v>
       </c>
@@ -17361,10 +17707,10 @@
       <c r="G393" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="H393" s="26" t="s">
+      <c r="H393" s="50" t="s">
         <v>1471</v>
       </c>
-      <c r="I393" s="26" t="s">
+      <c r="I393" s="50" t="s">
         <v>1472</v>
       </c>
       <c r="J393" s="26"/>
@@ -17397,7 +17743,8 @@
       <c r="G394" t="s">
         <v>133</v>
       </c>
-      <c r="I394" s="4" t="s">
+      <c r="H394" s="47"/>
+      <c r="I394" s="47" t="s">
         <v>546</v>
       </c>
       <c r="J394" s="4" t="s">
@@ -17426,10 +17773,10 @@
       <c r="G395" t="s">
         <v>133</v>
       </c>
-      <c r="H395" s="4" t="s">
+      <c r="H395" s="47" t="s">
         <v>553</v>
       </c>
-      <c r="I395" s="4" t="s">
+      <c r="I395" s="47" t="s">
         <v>554</v>
       </c>
       <c r="K395" s="4" t="s">
@@ -17455,9 +17802,10 @@
       <c r="G396" t="s">
         <v>133</v>
       </c>
-      <c r="H396" s="4" t="s">
+      <c r="H396" s="47" t="s">
         <v>557</v>
       </c>
+      <c r="I396" s="47"/>
       <c r="J396" s="4" t="s">
         <v>558</v>
       </c>
@@ -17487,7 +17835,8 @@
       <c r="G397" t="s">
         <v>133</v>
       </c>
-      <c r="I397" s="4" t="s">
+      <c r="H397" s="47"/>
+      <c r="I397" s="47" t="s">
         <v>561</v>
       </c>
       <c r="J397" s="4" t="s">
@@ -17516,10 +17865,10 @@
       <c r="G398" t="s">
         <v>133</v>
       </c>
-      <c r="H398" s="4" t="s">
+      <c r="H398" s="47" t="s">
         <v>564</v>
       </c>
-      <c r="I398" s="4" t="s">
+      <c r="I398" s="47" t="s">
         <v>565</v>
       </c>
       <c r="K398" s="4" t="s">
@@ -17542,6 +17891,8 @@
       <c r="G399" t="s">
         <v>133</v>
       </c>
+      <c r="H399" s="47"/>
+      <c r="I399" s="47"/>
       <c r="K399" s="4" t="s">
         <v>1258</v>
       </c>
@@ -17571,10 +17922,10 @@
       <c r="G400" t="s">
         <v>133</v>
       </c>
-      <c r="H400" s="4" t="s">
+      <c r="H400" s="47" t="s">
         <v>428</v>
       </c>
-      <c r="I400" s="4" t="s">
+      <c r="I400" s="47" t="s">
         <v>1274</v>
       </c>
       <c r="K400" s="4" t="s">
@@ -17603,10 +17954,10 @@
       <c r="G401" t="s">
         <v>133</v>
       </c>
-      <c r="H401" s="4" t="s">
+      <c r="H401" s="47" t="s">
         <v>1082</v>
       </c>
-      <c r="I401" s="4" t="s">
+      <c r="I401" s="47" t="s">
         <v>1269</v>
       </c>
       <c r="K401" s="4" t="s">
@@ -17635,10 +17986,10 @@
       <c r="G402" t="s">
         <v>133</v>
       </c>
-      <c r="H402" s="4" t="s">
+      <c r="H402" s="47" t="s">
         <v>1186</v>
       </c>
-      <c r="I402" s="4" t="s">
+      <c r="I402" s="47" t="s">
         <v>1276</v>
       </c>
       <c r="K402" s="4" t="s">
@@ -17647,6 +17998,10 @@
       <c r="L402" s="4" t="s">
         <v>1262</v>
       </c>
+    </row>
+    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H403" s="47"/>
+      <c r="I403" s="47"/>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
@@ -17664,10 +18019,10 @@
       <c r="G404" t="s">
         <v>133</v>
       </c>
-      <c r="H404" s="4" t="s">
+      <c r="H404" s="47" t="s">
         <v>657</v>
       </c>
-      <c r="I404" s="4" t="s">
+      <c r="I404" s="47" t="s">
         <v>652</v>
       </c>
       <c r="K404" s="4" t="s">
@@ -17696,7 +18051,8 @@
       <c r="G405" t="s">
         <v>133</v>
       </c>
-      <c r="I405" s="4" t="s">
+      <c r="H405" s="47"/>
+      <c r="I405" s="47" t="s">
         <v>655</v>
       </c>
       <c r="J405" s="4" t="s">
@@ -17731,6 +18087,8 @@
       <c r="G406" t="s">
         <v>133</v>
       </c>
+      <c r="H406" s="47"/>
+      <c r="I406" s="47"/>
       <c r="K406" s="4" t="s">
         <v>1730</v>
       </c>
@@ -17757,6 +18115,8 @@
       <c r="G407" t="s">
         <v>133</v>
       </c>
+      <c r="H407" s="47"/>
+      <c r="I407" s="47"/>
       <c r="K407" s="4" t="s">
         <v>1730</v>
       </c>
@@ -17780,10 +18140,10 @@
       <c r="G408" t="s">
         <v>133</v>
       </c>
-      <c r="H408" s="4" t="s">
+      <c r="H408" s="47" t="s">
         <v>462</v>
       </c>
-      <c r="I408" s="4" t="s">
+      <c r="I408" s="47" t="s">
         <v>463</v>
       </c>
       <c r="K408" s="4" t="s">
@@ -17809,10 +18169,10 @@
       <c r="G409" t="s">
         <v>133</v>
       </c>
-      <c r="H409" s="4" t="s">
+      <c r="H409" s="47" t="s">
         <v>457</v>
       </c>
-      <c r="I409" s="4" t="s">
+      <c r="I409" s="47" t="s">
         <v>464</v>
       </c>
       <c r="K409" s="4" t="s">
@@ -17821,6 +18181,10 @@
       <c r="L409" s="4" t="s">
         <v>466</v>
       </c>
+    </row>
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H410" s="47"/>
+      <c r="I410" s="47"/>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
@@ -17841,10 +18205,10 @@
       <c r="G411" t="s">
         <v>86</v>
       </c>
-      <c r="H411" s="4" t="s">
+      <c r="H411" s="47" t="s">
         <v>1012</v>
       </c>
-      <c r="I411" s="4" t="s">
+      <c r="I411" s="47" t="s">
         <v>1021</v>
       </c>
       <c r="K411" s="4" t="s">
@@ -17876,10 +18240,10 @@
       <c r="G412" t="s">
         <v>86</v>
       </c>
-      <c r="H412" s="4" t="s">
+      <c r="H412" s="47" t="s">
         <v>1013</v>
       </c>
-      <c r="I412" s="4" t="s">
+      <c r="I412" s="47" t="s">
         <v>998</v>
       </c>
       <c r="K412" s="4" t="s">
@@ -17914,10 +18278,10 @@
       <c r="G413" t="s">
         <v>133</v>
       </c>
-      <c r="H413" s="4" t="s">
+      <c r="H413" s="47" t="s">
         <v>1717</v>
       </c>
-      <c r="I413" s="4" t="s">
+      <c r="I413" s="47" t="s">
         <v>1718</v>
       </c>
       <c r="K413" s="4" t="s">
@@ -17929,12 +18293,18 @@
       <c r="M413" s="4"/>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H414" s="47"/>
+      <c r="I414" s="47"/>
       <c r="M414" s="4"/>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H415" s="47"/>
+      <c r="I415" s="47"/>
       <c r="M415" s="4"/>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H416" s="47"/>
+      <c r="I416" s="47"/>
       <c r="M416" s="4"/>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
@@ -17956,10 +18326,10 @@
       <c r="G417" t="s">
         <v>133</v>
       </c>
-      <c r="H417" s="4" t="s">
+      <c r="H417" s="47" t="s">
         <v>1625</v>
       </c>
-      <c r="I417" s="4" t="s">
+      <c r="I417" s="47" t="s">
         <v>1626</v>
       </c>
       <c r="K417" s="4" t="s">
@@ -17989,10 +18359,10 @@
       <c r="G418" t="s">
         <v>133</v>
       </c>
-      <c r="H418" s="4" t="s">
+      <c r="H418" s="47" t="s">
         <v>1623</v>
       </c>
-      <c r="I418" s="4" t="s">
+      <c r="I418" s="47" t="s">
         <v>1624</v>
       </c>
       <c r="K418" s="4" t="s">
@@ -18004,6 +18374,8 @@
       <c r="M418" s="4"/>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H419" s="47"/>
+      <c r="I419" s="47"/>
       <c r="M419" s="4"/>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
@@ -18022,10 +18394,10 @@
       <c r="G420" t="s">
         <v>86</v>
       </c>
-      <c r="H420" s="4" t="s">
+      <c r="H420" s="47" t="s">
         <v>1038</v>
       </c>
-      <c r="I420" s="4" t="s">
+      <c r="I420" s="47" t="s">
         <v>1039</v>
       </c>
       <c r="K420" s="4" t="s">
@@ -18046,10 +18418,10 @@
       <c r="C421" s="14" t="s">
         <v>1653</v>
       </c>
-      <c r="H421" s="15" t="s">
+      <c r="H421" s="61" t="s">
         <v>1659</v>
       </c>
-      <c r="I421" s="15" t="s">
+      <c r="I421" s="61" t="s">
         <v>1660</v>
       </c>
       <c r="J421" s="15"/>
@@ -18071,10 +18443,10 @@
       <c r="C422" s="14" t="s">
         <v>1656</v>
       </c>
-      <c r="H422" s="15" t="s">
+      <c r="H422" s="61" t="s">
         <v>1657</v>
       </c>
-      <c r="I422" s="15" t="s">
+      <c r="I422" s="61" t="s">
         <v>1658</v>
       </c>
       <c r="J422" s="15"/>
@@ -18102,10 +18474,10 @@
       <c r="G423" t="s">
         <v>86</v>
       </c>
-      <c r="H423" s="4" t="s">
+      <c r="H423" s="47" t="s">
         <v>1229</v>
       </c>
-      <c r="I423" s="4" t="s">
+      <c r="I423" s="47" t="s">
         <v>1230</v>
       </c>
       <c r="K423" s="4" t="s">
@@ -18132,10 +18504,10 @@
       <c r="G424" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="H424" s="26" t="s">
+      <c r="H424" s="50" t="s">
         <v>1042</v>
       </c>
-      <c r="I424" s="26" t="s">
+      <c r="I424" s="50" t="s">
         <v>1043</v>
       </c>
       <c r="J424" s="26"/>
@@ -18166,10 +18538,10 @@
       <c r="G425" t="s">
         <v>86</v>
       </c>
-      <c r="H425" s="4" t="s">
+      <c r="H425" s="47" t="s">
         <v>1306</v>
       </c>
-      <c r="I425" s="4" t="s">
+      <c r="I425" s="47" t="s">
         <v>1307</v>
       </c>
       <c r="K425" s="4" t="s">
@@ -18196,10 +18568,10 @@
       <c r="G426" t="s">
         <v>86</v>
       </c>
-      <c r="H426" s="4" t="s">
+      <c r="H426" s="47" t="s">
         <v>1018</v>
       </c>
-      <c r="I426" s="4" t="s">
+      <c r="I426" s="47" t="s">
         <v>1076</v>
       </c>
       <c r="M426" s="4"/>
@@ -18220,7 +18592,8 @@
       <c r="G427" t="s">
         <v>133</v>
       </c>
-      <c r="I427" s="4" t="s">
+      <c r="H427" s="47"/>
+      <c r="I427" s="47" t="s">
         <v>1104</v>
       </c>
       <c r="K427" s="4" t="s">
@@ -18247,6 +18620,8 @@
       <c r="G428" t="s">
         <v>133</v>
       </c>
+      <c r="H428" s="47"/>
+      <c r="I428" s="47"/>
       <c r="K428" s="4" t="s">
         <v>1105</v>
       </c>
@@ -18256,6 +18631,8 @@
       <c r="M428" s="4"/>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H429" s="47"/>
+      <c r="I429" s="47"/>
       <c r="M429" s="4"/>
     </row>
     <row r="430" spans="1:13" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -18274,10 +18651,10 @@
       <c r="G430" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="H430" s="28" t="s">
+      <c r="H430" s="62" t="s">
         <v>604</v>
       </c>
-      <c r="I430" s="28" t="s">
+      <c r="I430" s="62" t="s">
         <v>1076</v>
       </c>
       <c r="J430" s="28"/>
@@ -18311,10 +18688,10 @@
       <c r="G431" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H431" s="17" t="s">
+      <c r="H431" s="51" t="s">
         <v>1732</v>
       </c>
-      <c r="I431" s="17" t="s">
+      <c r="I431" s="51" t="s">
         <v>1733</v>
       </c>
       <c r="J431" s="17"/>
@@ -18348,10 +18725,10 @@
       <c r="G432" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H432" s="17" t="s">
+      <c r="H432" s="51" t="s">
         <v>1737</v>
       </c>
-      <c r="I432" s="17" t="s">
+      <c r="I432" s="51" t="s">
         <v>1738</v>
       </c>
       <c r="J432" s="17"/>
@@ -18379,10 +18756,10 @@
       <c r="G433" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H433" s="17" t="s">
+      <c r="H433" s="51" t="s">
         <v>946</v>
       </c>
-      <c r="I433" s="17" t="s">
+      <c r="I433" s="51" t="s">
         <v>1665</v>
       </c>
       <c r="J433" s="17"/>
@@ -18415,10 +18792,10 @@
       <c r="G434" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H434" s="17" t="s">
+      <c r="H434" s="51" t="s">
         <v>1671</v>
       </c>
-      <c r="I434" s="17" t="s">
+      <c r="I434" s="51" t="s">
         <v>1670</v>
       </c>
       <c r="J434" s="17"/>
@@ -18446,10 +18823,10 @@
       <c r="G435" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H435" s="17" t="s">
+      <c r="H435" s="51" t="s">
         <v>604</v>
       </c>
-      <c r="I435" s="17" t="s">
+      <c r="I435" s="51" t="s">
         <v>1076</v>
       </c>
       <c r="J435" s="17"/>
@@ -18477,10 +18854,10 @@
       <c r="G436" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="H436" s="24" t="s">
+      <c r="H436" s="56" t="s">
         <v>1678</v>
       </c>
-      <c r="I436" s="24" t="s">
+      <c r="I436" s="56" t="s">
         <v>1676</v>
       </c>
       <c r="J436" s="24"/>
@@ -18507,10 +18884,10 @@
       <c r="G437" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="H437" s="24" t="s">
+      <c r="H437" s="56" t="s">
         <v>1679</v>
       </c>
-      <c r="I437" s="24" t="s">
+      <c r="I437" s="56" t="s">
         <v>1680</v>
       </c>
       <c r="J437" s="19"/>
@@ -18535,10 +18912,10 @@
       <c r="G438" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="H438" s="24" t="s">
+      <c r="H438" s="56" t="s">
         <v>1687</v>
       </c>
-      <c r="I438" s="24" t="s">
+      <c r="I438" s="56" t="s">
         <v>1688</v>
       </c>
       <c r="J438" s="19"/>
@@ -18565,10 +18942,10 @@
       <c r="G439" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="H439" s="24" t="s">
+      <c r="H439" s="56" t="s">
         <v>1689</v>
       </c>
-      <c r="I439" s="24" t="s">
+      <c r="I439" s="56" t="s">
         <v>1690</v>
       </c>
       <c r="J439" s="19"/>
@@ -18583,8 +18960,8 @@
       <c r="E440" s="16"/>
       <c r="F440" s="16"/>
       <c r="G440" s="16"/>
-      <c r="H440" s="17"/>
-      <c r="I440" s="17"/>
+      <c r="H440" s="51"/>
+      <c r="I440" s="51"/>
       <c r="M440" s="4"/>
     </row>
     <row r="441" spans="1:257" x14ac:dyDescent="0.25">
@@ -18606,6 +18983,8 @@
       <c r="G441" t="s">
         <v>133</v>
       </c>
+      <c r="H441" s="47"/>
+      <c r="I441" s="47"/>
       <c r="K441" s="4" t="s">
         <v>1617</v>
       </c>
@@ -18615,6 +18994,8 @@
       <c r="M441" s="4"/>
     </row>
     <row r="442" spans="1:257" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="H442" s="47"/>
+      <c r="I442" s="47"/>
       <c r="K442" s="13"/>
     </row>
     <row r="443" spans="1:257" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -18636,10 +19017,10 @@
       <c r="G443" t="s">
         <v>133</v>
       </c>
-      <c r="H443" s="5" t="s">
+      <c r="H443" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="I443" s="5" t="s">
+      <c r="I443" s="63" t="s">
         <v>298</v>
       </c>
       <c r="J443" s="5"/>
@@ -18666,10 +19047,10 @@
       <c r="G444" t="s">
         <v>133</v>
       </c>
-      <c r="H444" s="4" t="s">
+      <c r="H444" s="47" t="s">
         <v>305</v>
       </c>
-      <c r="I444" s="4" t="s">
+      <c r="I444" s="47" t="s">
         <v>304</v>
       </c>
       <c r="J444" s="4" t="s">
@@ -18701,10 +19082,10 @@
       <c r="G445" t="s">
         <v>133</v>
       </c>
-      <c r="H445" s="4" t="s">
+      <c r="H445" s="47" t="s">
         <v>367</v>
       </c>
-      <c r="I445" s="4" t="s">
+      <c r="I445" s="47" t="s">
         <v>368</v>
       </c>
       <c r="K445" s="4" t="s">
@@ -18733,10 +19114,10 @@
       <c r="G446" t="s">
         <v>133</v>
       </c>
-      <c r="H446" s="4" t="s">
+      <c r="H446" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="I446" s="4" t="s">
+      <c r="I446" s="47" t="s">
         <v>375</v>
       </c>
       <c r="K446" s="4" t="s">
@@ -18768,10 +19149,10 @@
       <c r="G447" t="s">
         <v>133</v>
       </c>
-      <c r="H447" s="4" t="s">
+      <c r="H447" s="47" t="s">
         <v>376</v>
       </c>
-      <c r="I447" s="4" t="s">
+      <c r="I447" s="47" t="s">
         <v>377</v>
       </c>
       <c r="K447" s="4" t="s">
@@ -18803,10 +19184,10 @@
       <c r="G448" t="s">
         <v>133</v>
       </c>
-      <c r="H448" s="4" t="s">
+      <c r="H448" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="I448" s="4" t="s">
+      <c r="I448" s="47" t="s">
         <v>385</v>
       </c>
       <c r="K448" s="4" t="s">
@@ -18835,10 +19216,10 @@
       <c r="G449" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H449" s="10" t="s">
+      <c r="H449" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="I449" s="10" t="s">
+      <c r="I449" s="48" t="s">
         <v>383</v>
       </c>
       <c r="J449" s="10"/>
@@ -18868,10 +19249,10 @@
       <c r="G450" t="s">
         <v>133</v>
       </c>
-      <c r="H450" s="4" t="s">
+      <c r="H450" s="47" t="s">
         <v>388</v>
       </c>
-      <c r="I450" s="4" t="s">
+      <c r="I450" s="47" t="s">
         <v>389</v>
       </c>
       <c r="K450" s="4" t="s">
@@ -18903,10 +19284,10 @@
       <c r="G451" t="s">
         <v>133</v>
       </c>
-      <c r="H451" s="4" t="s">
+      <c r="H451" s="47" t="s">
         <v>386</v>
       </c>
-      <c r="I451" s="4" t="s">
+      <c r="I451" s="47" t="s">
         <v>387</v>
       </c>
       <c r="K451" s="4" t="s">
@@ -18938,10 +19319,10 @@
       <c r="G452" t="s">
         <v>133</v>
       </c>
-      <c r="H452" s="4" t="s">
+      <c r="H452" s="47" t="s">
         <v>417</v>
       </c>
-      <c r="I452" s="4" t="s">
+      <c r="I452" s="47" t="s">
         <v>418</v>
       </c>
       <c r="K452" s="4" t="s">
@@ -18970,10 +19351,10 @@
       <c r="G453" t="s">
         <v>133</v>
       </c>
-      <c r="H453" s="4" t="s">
+      <c r="H453" s="47" t="s">
         <v>1463</v>
       </c>
-      <c r="I453" s="4" t="s">
+      <c r="I453" s="47" t="s">
         <v>424</v>
       </c>
       <c r="K453" s="4" t="s">
@@ -18999,10 +19380,10 @@
       <c r="G454" t="s">
         <v>133</v>
       </c>
-      <c r="H454" s="4" t="s">
+      <c r="H454" s="47" t="s">
         <v>428</v>
       </c>
-      <c r="I454" s="4" t="s">
+      <c r="I454" s="47" t="s">
         <v>429</v>
       </c>
       <c r="K454" s="4" t="s">
@@ -19031,10 +19412,10 @@
       <c r="G455" t="s">
         <v>133</v>
       </c>
-      <c r="H455" s="4" t="s">
+      <c r="H455" s="47" t="s">
         <v>432</v>
       </c>
-      <c r="I455" s="4" t="s">
+      <c r="I455" s="47" t="s">
         <v>433</v>
       </c>
       <c r="K455" s="4" t="s">
@@ -19063,10 +19444,10 @@
       <c r="G456" t="s">
         <v>133</v>
       </c>
-      <c r="H456" s="4" t="s">
+      <c r="H456" s="47" t="s">
         <v>620</v>
       </c>
-      <c r="I456" s="4" t="s">
+      <c r="I456" s="47" t="s">
         <v>621</v>
       </c>
       <c r="K456" s="4" t="s">
@@ -19098,7 +19479,8 @@
       <c r="G457" t="s">
         <v>133</v>
       </c>
-      <c r="I457" s="4" t="s">
+      <c r="H457" s="47"/>
+      <c r="I457" s="47" t="s">
         <v>498</v>
       </c>
       <c r="J457" s="4" t="s">
@@ -19130,7 +19512,8 @@
       <c r="G458" t="s">
         <v>133</v>
       </c>
-      <c r="I458" s="4" t="s">
+      <c r="H458" s="47"/>
+      <c r="I458" s="47" t="s">
         <v>504</v>
       </c>
       <c r="J458" s="4" t="s">
@@ -19162,7 +19545,8 @@
       <c r="G459" t="s">
         <v>133</v>
       </c>
-      <c r="I459" s="4" t="s">
+      <c r="H459" s="47"/>
+      <c r="I459" s="47" t="s">
         <v>508</v>
       </c>
       <c r="J459" s="4" t="s">
@@ -19194,7 +19578,8 @@
       <c r="G460" t="s">
         <v>133</v>
       </c>
-      <c r="I460" s="4" t="s">
+      <c r="H460" s="47"/>
+      <c r="I460" s="47" t="s">
         <v>511</v>
       </c>
       <c r="J460" s="4" t="s">
@@ -19226,10 +19611,10 @@
       <c r="G461" t="s">
         <v>133</v>
       </c>
-      <c r="H461" s="4" t="s">
+      <c r="H461" s="47" t="s">
         <v>515</v>
       </c>
-      <c r="I461" s="4" t="s">
+      <c r="I461" s="47" t="s">
         <v>516</v>
       </c>
       <c r="K461" s="4" t="s">
@@ -19255,10 +19640,10 @@
       <c r="G462" t="s">
         <v>133</v>
       </c>
-      <c r="H462" s="4" t="s">
+      <c r="H462" s="47" t="s">
         <v>968</v>
       </c>
-      <c r="I462" s="4" t="s">
+      <c r="I462" s="47" t="s">
         <v>969</v>
       </c>
       <c r="K462" s="4" t="s">
@@ -19287,10 +19672,10 @@
       <c r="G463" t="s">
         <v>133</v>
       </c>
-      <c r="H463" s="4" t="s">
+      <c r="H463" s="47" t="s">
         <v>966</v>
       </c>
-      <c r="I463" s="4" t="s">
+      <c r="I463" s="47" t="s">
         <v>967</v>
       </c>
       <c r="K463" s="4" t="s">
